--- a/RLFS Tables_ Annual_2022.xlsx
+++ b/RLFS Tables_ Annual_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARDX LTD\Desktop\NISR COMPETITION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83770849-3481-4B9D-8AE9-DD630B796583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22404C-CBEC-42F8-9A84-D1E764FC90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="871" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="871" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List Of Tables" sheetId="30" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="686">
   <si>
     <t>Professional, scientific and technical activities</t>
   </si>
@@ -1465,9 +1465,6 @@
   </si>
   <si>
     <t>Employed population 16+ in formal nd informal sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total employees/paid apprentices 16 + </t>
   </si>
   <si>
     <t xml:space="preserve">Not stated </t>
@@ -2248,6 +2245,12 @@
   </si>
   <si>
     <t>Occupation Group</t>
+  </si>
+  <si>
+    <t>Duration Employment Contract</t>
+  </si>
+  <si>
+    <t>Total employees/paid apprentices 16 +</t>
   </si>
 </sst>
 </file>
@@ -3282,7 +3285,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="401">
+  <cellXfs count="400">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3776,7 +3779,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="37" fontId="21" fillId="2" borderId="4" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3855,6 +3857,15 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4012,9 +4023,6 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4068,12 +4076,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4155,6 +4157,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4296,9 +4301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="73">
@@ -4690,10 +4692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="255" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="253"/>
+      <c r="B1" s="255"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5283,7 +5285,7 @@
     <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5349,7 +5351,7 @@
     <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -5400,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -5412,38 +5414,38 @@
       <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="241" t="s">
+      <c r="A2" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="240" t="s">
+      <c r="B2" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="242" t="s">
+      <c r="C2" s="241" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="243" t="s">
+      <c r="D2" s="242" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="243" t="s">
+      <c r="E2" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="244" t="s">
+      <c r="F2" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="245" t="s">
+      <c r="G2" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="245" t="s">
+      <c r="H2" s="244" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="245" t="s">
+      <c r="I2" s="244" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B3" s="197">
         <v>7963586</v>
@@ -5641,7 +5643,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -5653,61 +5655,61 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="298">
+      <c r="A10" s="300">
         <v>15</v>
       </c>
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="303" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="292" t="s">
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="292" t="s">
+      <c r="H10" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="292" t="s">
+      <c r="I10" s="294" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="299"/>
-      <c r="B11" s="292"/>
-      <c r="C11" s="296" t="s">
+      <c r="A11" s="301"/>
+      <c r="B11" s="294"/>
+      <c r="C11" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="296" t="s">
+      <c r="D11" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="296" t="s">
+      <c r="F11" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="292"/>
-      <c r="H11" s="292"/>
-      <c r="I11" s="292"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="294"/>
+      <c r="I11" s="294"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="300"/>
-      <c r="B12" s="292"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="297"/>
-      <c r="F12" s="297"/>
-      <c r="G12" s="292"/>
-      <c r="H12" s="292"/>
-      <c r="I12" s="292"/>
+      <c r="A12" s="302"/>
+      <c r="B12" s="294"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="294"/>
+      <c r="H12" s="294"/>
+      <c r="I12" s="294"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" s="197">
         <v>7963586</v>
@@ -5963,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5976,56 +5978,56 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="304"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="306"/>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="265" t="s">
+      <c r="E2" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="259" t="s">
-        <v>513</v>
+      <c r="G2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
+      <c r="A3" s="306"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="304"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="A4" s="306"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="267"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="267"/>
+      <c r="F4" s="267"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
@@ -6415,38 +6417,38 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
-        <v>684</v>
-      </c>
-      <c r="B22" s="246" t="s">
+        <v>683</v>
+      </c>
+      <c r="B22" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="246" t="s">
+      <c r="C22" s="245" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="246" t="s">
+      <c r="D22" s="245" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="246" t="s">
+      <c r="E22" s="245" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="246" t="s">
+      <c r="F22" s="245" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="175" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H22" s="175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B23" s="149">
         <v>3546352</v>
@@ -6770,7 +6772,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6781,52 +6783,52 @@
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="308"/>
-      <c r="B2" s="309" t="s">
+      <c r="A2" s="309"/>
+      <c r="B2" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="309" t="s">
+      <c r="D2" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="309" t="s">
+      <c r="E2" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="259" t="s">
-        <v>513</v>
+      <c r="G2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="308"/>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
+      <c r="A3" s="309"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="308"/>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="A4" s="309"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -6928,7 +6930,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -6939,48 +6941,48 @@
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="306"/>
-      <c r="B11" s="307" t="s">
+      <c r="A11" s="307"/>
+      <c r="B11" s="308" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="307" t="s">
+      <c r="C11" s="308" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="307" t="s">
+      <c r="D11" s="308" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="307" t="s">
+      <c r="E11" s="308" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="307" t="s">
+      <c r="F11" s="308" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H11" s="259" t="s">
-        <v>513</v>
+      <c r="G11" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" s="261" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="306"/>
-      <c r="B12" s="307"/>
-      <c r="C12" s="307"/>
-      <c r="D12" s="307"/>
-      <c r="E12" s="307"/>
-      <c r="F12" s="307"/>
-      <c r="G12" s="259"/>
-      <c r="H12" s="259"/>
+      <c r="A12" s="307"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="261"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="306"/>
-      <c r="B13" s="307"/>
-      <c r="C13" s="307"/>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="307"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
+      <c r="A13" s="307"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="308"/>
+      <c r="D13" s="308"/>
+      <c r="E13" s="308"/>
+      <c r="F13" s="308"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="261"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
@@ -7283,30 +7285,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="304" t="s">
-        <v>491</v>
-      </c>
-      <c r="B2" s="259" t="s">
+      <c r="A2" s="306" t="s">
+        <v>490</v>
+      </c>
+      <c r="B2" s="261" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="310" t="s">
-        <v>512</v>
-      </c>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
-      <c r="G2" s="310"/>
+      <c r="C2" s="311" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="311"/>
+      <c r="E2" s="311"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
-      <c r="B3" s="259"/>
+      <c r="A3" s="306"/>
+      <c r="B3" s="261"/>
       <c r="C3" s="175" t="s">
         <v>117</v>
       </c>
@@ -7579,13 +7581,13 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="311"/>
-      <c r="B15" s="312"/>
-      <c r="C15" s="312"/>
-      <c r="D15" s="312"/>
-      <c r="E15" s="312"/>
-      <c r="F15" s="312"/>
-      <c r="G15" s="313"/>
+      <c r="A15" s="312"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="313"/>
+      <c r="D15" s="313"/>
+      <c r="E15" s="313"/>
+      <c r="F15" s="313"/>
+      <c r="G15" s="314"/>
       <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7839,13 +7841,13 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="311"/>
-      <c r="B27" s="312"/>
-      <c r="C27" s="312"/>
-      <c r="D27" s="312"/>
-      <c r="E27" s="312"/>
-      <c r="F27" s="312"/>
-      <c r="G27" s="313"/>
+      <c r="A27" s="312"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="313"/>
+      <c r="F27" s="313"/>
+      <c r="G27" s="314"/>
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8234,56 +8236,56 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="314"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="315"/>
+      <c r="B2" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="311" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="310" t="s">
+      <c r="D2" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="310" t="s">
+      <c r="E2" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="310" t="s">
+      <c r="F2" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="259" t="s">
-        <v>513</v>
+      <c r="G2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="314"/>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
+      <c r="A3" s="315"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="314"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="A4" s="315"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -8912,7 +8914,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8966,13 +8968,13 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="315"/>
-      <c r="B4" s="316"/>
-      <c r="C4" s="316"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="316"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="317"/>
+      <c r="A4" s="316"/>
+      <c r="B4" s="317"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="317"/>
+      <c r="E4" s="317"/>
+      <c r="F4" s="317"/>
+      <c r="G4" s="318"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -9500,13 +9502,13 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="318"/>
-      <c r="B26" s="319"/>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="320"/>
+      <c r="A26" s="319"/>
+      <c r="B26" s="320"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="320"/>
+      <c r="E26" s="320"/>
+      <c r="F26" s="320"/>
+      <c r="G26" s="321"/>
       <c r="H26" s="13"/>
       <c r="I26" s="2"/>
     </row>
@@ -9556,7 +9558,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="102" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B30" s="146">
         <v>788010</v>
@@ -9581,7 +9583,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="102" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" s="146">
         <v>38499</v>
@@ -9606,7 +9608,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="102" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B32" s="146">
         <v>98554</v>
@@ -9631,7 +9633,7 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B33" s="146">
         <v>3519</v>
@@ -9656,7 +9658,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="102" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B34" s="146">
         <v>5183</v>
@@ -9681,7 +9683,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="102" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B35" s="146">
         <v>317507</v>
@@ -9706,7 +9708,7 @@
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="102" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B36" s="146">
         <v>160722</v>
@@ -9731,7 +9733,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="102" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B37" s="146">
         <v>189985</v>
@@ -9756,7 +9758,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="102" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B38" s="146">
         <v>43819</v>
@@ -9781,7 +9783,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="102" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B39" s="146">
         <v>5938</v>
@@ -9806,7 +9808,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="102" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B40" s="146">
         <v>14814</v>
@@ -9856,7 +9858,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B42" s="146">
         <v>19036</v>
@@ -9881,7 +9883,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="102" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B43" s="146">
         <v>41151</v>
@@ -9906,7 +9908,7 @@
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="102" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B44" s="146">
         <v>45037</v>
@@ -9931,7 +9933,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="102" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B45" s="146">
         <v>72303</v>
@@ -9956,7 +9958,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="102" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B46" s="146">
         <v>20869</v>
@@ -9981,7 +9983,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="102" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B47" s="146">
         <v>4384</v>
@@ -10006,7 +10008,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="102" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B48" s="146">
         <v>52378</v>
@@ -10031,7 +10033,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="102" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B49" s="146">
         <v>49852</v>
@@ -10056,7 +10058,7 @@
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="102" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B50" s="146">
         <v>2719</v>
@@ -10879,10 +10881,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10898,56 +10900,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="326"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="325"/>
+      <c r="B2" s="311" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310" t="s">
+      <c r="D2" s="311"/>
+      <c r="E2" s="311" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="310"/>
-      <c r="G2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="259" t="s">
-        <v>513</v>
+      <c r="F2" s="311"/>
+      <c r="G2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="326"/>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310" t="s">
+      <c r="A3" s="325"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="310" t="s">
+      <c r="D3" s="311" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="310" t="s">
+      <c r="E3" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="310" t="s">
+      <c r="F3" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="326"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="A4" s="325"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -10976,14 +10978,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="321"/>
-      <c r="B6" s="322"/>
-      <c r="C6" s="322"/>
-      <c r="D6" s="322"/>
-      <c r="E6" s="322"/>
-      <c r="F6" s="322"/>
-      <c r="G6" s="322"/>
-      <c r="H6" s="323"/>
+      <c r="A6" s="322"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="324"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
@@ -11129,7 +11131,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -11142,25 +11144,25 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="310"/>
-      <c r="B14" s="310" t="s">
+      <c r="A14" s="311"/>
+      <c r="B14" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="310"/>
-      <c r="D14" s="310"/>
-      <c r="E14" s="310" t="s">
+      <c r="C14" s="311"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="310"/>
-      <c r="G14" s="310"/>
-      <c r="H14" s="310" t="s">
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="310"/>
-      <c r="J14" s="310"/>
+      <c r="I14" s="311"/>
+      <c r="J14" s="311"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="310"/>
+      <c r="A15" s="311"/>
       <c r="B15" s="103" t="s">
         <v>9</v>
       </c>
@@ -11222,7 +11224,7 @@
       </c>
       <c r="L16" s="65"/>
     </row>
-    <row r="17" spans="1:11" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="99"/>
       <c r="B17" s="117"/>
       <c r="C17" s="117"/>
@@ -11234,7 +11236,7 @@
       <c r="I17" s="117"/>
       <c r="J17" s="117"/>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
         <v>152</v>
       </c>
@@ -11266,7 +11268,7 @@
         <v>426145</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
         <v>153</v>
       </c>
@@ -11298,7 +11300,7 @@
         <v>208842</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
         <v>150</v>
       </c>
@@ -11330,7 +11332,7 @@
         <v>338541</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
         <v>147</v>
       </c>
@@ -11362,7 +11364,7 @@
         <v>140382</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
         <v>151</v>
       </c>
@@ -11394,7 +11396,7 @@
         <v>54259</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
         <v>148</v>
       </c>
@@ -11426,7 +11428,7 @@
         <v>20235</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
         <v>149</v>
       </c>
@@ -11458,7 +11460,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -11470,9 +11472,9 @@
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -11482,305 +11484,308 @@
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="324"/>
-      <c r="B27" s="325" t="s">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="252" t="s">
+        <v>684</v>
+      </c>
+      <c r="B27" s="253" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="325" t="s">
+      <c r="C27" s="253" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="325" t="s">
+      <c r="D27" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="325" t="s">
+      <c r="E27" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="325" t="s">
+      <c r="F27" s="253" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H27" s="259" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="324"/>
-      <c r="B28" s="325"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
-      <c r="G28" s="259"/>
-      <c r="H28" s="259"/>
-    </row>
-    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="324"/>
-      <c r="B29" s="325"/>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
-      <c r="E29" s="325"/>
-      <c r="F29" s="325"/>
-      <c r="G29" s="259"/>
-      <c r="H29" s="259"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="164" t="s">
-        <v>434</v>
-      </c>
-      <c r="B30" s="117">
+      <c r="G27" s="175" t="s">
+        <v>505</v>
+      </c>
+      <c r="H27" s="175" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="164" t="s">
+        <v>685</v>
+      </c>
+      <c r="B28" s="117">
         <v>2570193</v>
       </c>
-      <c r="C30" s="117">
+      <c r="C28" s="117">
         <v>1443982</v>
       </c>
-      <c r="D30" s="117">
+      <c r="D28" s="117">
         <v>1126211</v>
       </c>
-      <c r="E30" s="117">
+      <c r="E28" s="117">
         <v>552578</v>
       </c>
-      <c r="F30" s="117">
+      <c r="F28" s="117">
         <v>2017615</v>
       </c>
-      <c r="G30" s="117">
+      <c r="G28" s="117">
         <v>1011758</v>
       </c>
-      <c r="H30" s="117">
+      <c r="H28" s="117">
         <v>1558436</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="225"/>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="167" t="s">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="167" t="s">
         <v>204</v>
       </c>
+      <c r="B29" s="104">
+        <v>528779</v>
+      </c>
+      <c r="C29" s="104">
+        <v>306371</v>
+      </c>
+      <c r="D29" s="104">
+        <v>222409</v>
+      </c>
+      <c r="E29" s="104">
+        <v>259475</v>
+      </c>
+      <c r="F29" s="104">
+        <v>269304</v>
+      </c>
+      <c r="G29" s="104">
+        <v>79866</v>
+      </c>
+      <c r="H29" s="104">
+        <v>448913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="102" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="104">
+        <v>2041414</v>
+      </c>
+      <c r="C30" s="104">
+        <v>1137612</v>
+      </c>
+      <c r="D30" s="104">
+        <v>903803</v>
+      </c>
+      <c r="E30" s="104">
+        <v>293103</v>
+      </c>
+      <c r="F30" s="104">
+        <v>1748311</v>
+      </c>
+      <c r="G30" s="104">
+        <v>931891</v>
+      </c>
+      <c r="H30" s="104">
+        <v>1109523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="225" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="104">
+        <v>1804341</v>
+      </c>
+      <c r="C31" s="104">
+        <v>1002839</v>
+      </c>
+      <c r="D31" s="104">
+        <v>801502</v>
+      </c>
+      <c r="E31" s="104">
+        <v>179233</v>
+      </c>
+      <c r="F31" s="104">
+        <v>1625108</v>
+      </c>
+      <c r="G31" s="104">
+        <v>899603</v>
+      </c>
+      <c r="H31" s="104">
+        <v>904738</v>
+      </c>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="225" t="s">
+        <v>207</v>
+      </c>
       <c r="B32" s="104">
-        <v>528779</v>
+        <v>28495</v>
       </c>
       <c r="C32" s="104">
-        <v>306371</v>
+        <v>18211</v>
       </c>
       <c r="D32" s="104">
-        <v>222409</v>
+        <v>10284</v>
       </c>
       <c r="E32" s="104">
-        <v>259475</v>
+        <v>7443</v>
       </c>
       <c r="F32" s="104">
-        <v>269304</v>
+        <v>21051</v>
       </c>
       <c r="G32" s="104">
-        <v>79866</v>
+        <v>8823</v>
       </c>
       <c r="H32" s="104">
-        <v>448913</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
-        <v>205</v>
+        <v>19671</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="225" t="s">
+        <v>208</v>
       </c>
       <c r="B33" s="104">
-        <v>2041414</v>
+        <v>120578</v>
       </c>
       <c r="C33" s="104">
-        <v>1137612</v>
+        <v>68287</v>
       </c>
       <c r="D33" s="104">
-        <v>903803</v>
+        <v>52291</v>
       </c>
       <c r="E33" s="104">
-        <v>293103</v>
+        <v>58887</v>
       </c>
       <c r="F33" s="104">
-        <v>1748311</v>
+        <v>61691</v>
       </c>
       <c r="G33" s="104">
-        <v>931891</v>
+        <v>14424</v>
       </c>
       <c r="H33" s="104">
-        <v>1109523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="226" t="s">
-        <v>206</v>
+        <v>106154</v>
+      </c>
+      <c r="J33" s="65"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="225" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="104">
+        <v>36421</v>
+      </c>
+      <c r="C34" s="104">
+        <v>18957</v>
+      </c>
+      <c r="D34" s="104">
+        <v>17464</v>
+      </c>
+      <c r="E34" s="104">
+        <v>17572</v>
+      </c>
+      <c r="F34" s="104">
+        <v>18848</v>
+      </c>
+      <c r="G34" s="104">
+        <v>4531</v>
+      </c>
+      <c r="H34" s="104">
+        <v>31890</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="225" t="s">
+        <v>210</v>
       </c>
       <c r="B35" s="104">
-        <v>1804341</v>
+        <v>51579</v>
       </c>
       <c r="C35" s="104">
-        <v>1002839</v>
+        <v>29317</v>
       </c>
       <c r="D35" s="104">
-        <v>801502</v>
+        <v>22262</v>
       </c>
       <c r="E35" s="104">
-        <v>179233</v>
+        <v>29967</v>
       </c>
       <c r="F35" s="104">
-        <v>1625108</v>
+        <v>21612</v>
       </c>
       <c r="G35" s="104">
-        <v>899603</v>
+        <v>4509</v>
       </c>
       <c r="H35" s="104">
-        <v>904738</v>
-      </c>
-      <c r="I35" s="44"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="226" t="s">
-        <v>207</v>
-      </c>
-      <c r="B36" s="104">
-        <v>28495</v>
-      </c>
-      <c r="C36" s="104">
-        <v>18211</v>
-      </c>
-      <c r="D36" s="104">
-        <v>10284</v>
-      </c>
-      <c r="E36" s="104">
-        <v>7443</v>
-      </c>
-      <c r="F36" s="104">
-        <v>21051</v>
-      </c>
-      <c r="G36" s="104">
-        <v>8823</v>
-      </c>
-      <c r="H36" s="104">
-        <v>19671</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="226" t="s">
-        <v>208</v>
-      </c>
-      <c r="B37" s="104">
-        <v>120578</v>
-      </c>
-      <c r="C37" s="104">
-        <v>68287</v>
-      </c>
-      <c r="D37" s="104">
-        <v>52291</v>
-      </c>
-      <c r="E37" s="104">
-        <v>58887</v>
-      </c>
-      <c r="F37" s="104">
-        <v>61691</v>
-      </c>
-      <c r="G37" s="104">
-        <v>14424</v>
-      </c>
-      <c r="H37" s="104">
-        <v>106154</v>
-      </c>
-      <c r="J37" s="65"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="226" t="s">
-        <v>209</v>
-      </c>
-      <c r="B38" s="104">
-        <v>36421</v>
-      </c>
-      <c r="C38" s="104">
-        <v>18957</v>
-      </c>
-      <c r="D38" s="104">
-        <v>17464</v>
-      </c>
-      <c r="E38" s="104">
-        <v>17572</v>
-      </c>
-      <c r="F38" s="104">
-        <v>18848</v>
-      </c>
-      <c r="G38" s="104">
-        <v>4531</v>
-      </c>
-      <c r="H38" s="104">
-        <v>31890</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="226" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="104">
-        <v>51579</v>
-      </c>
-      <c r="C39" s="104">
-        <v>29317</v>
-      </c>
-      <c r="D39" s="104">
-        <v>22262</v>
-      </c>
-      <c r="E39" s="104">
-        <v>29967</v>
-      </c>
-      <c r="F39" s="104">
-        <v>21612</v>
-      </c>
-      <c r="G39" s="104">
-        <v>4509</v>
-      </c>
-      <c r="H39" s="104">
         <v>47070</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="43"/>
+    <row r="36" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="43"/>
       <c r="H45" s="43"/>
       <c r="I45" s="43"/>
       <c r="J45" s="43"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="43"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -11789,20 +11794,13 @@
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
+      <c r="K46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J47" s="43"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
@@ -11811,21 +11809,9 @@
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
       <c r="J48" s="43"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="K48" s="43"/>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
@@ -11833,87 +11819,56 @@
       <c r="J50" s="43"/>
       <c r="K50" s="43"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F62" s="43"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F63" s="43"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="F64" s="43"/>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F65" s="43"/>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F67" s="43"/>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
+  <mergeCells count="15">
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
@@ -11943,60 +11898,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
+      <c r="A1" s="326" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="331" t="s">
+      <c r="A2" s="327"/>
+      <c r="B2" s="330" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="331" t="s">
+      <c r="C2" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="331" t="s">
+      <c r="D2" s="330" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="331" t="s">
+      <c r="E2" s="330" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="331" t="s">
+      <c r="F2" s="330" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="254" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="255" t="s">
-        <v>513</v>
+      <c r="G2" s="256" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="257" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329"/>
-      <c r="B3" s="332"/>
-      <c r="C3" s="332"/>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255"/>
+      <c r="A3" s="328"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="257"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="330"/>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="255"/>
+      <c r="A4" s="329"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="257"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
@@ -12124,7 +12079,7 @@
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="102" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B10" s="113">
         <v>19039</v>
@@ -12797,32 +12752,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="335" t="s">
+      <c r="A2" s="334" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="334" t="s">
+      <c r="B2" s="333" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334" t="s">
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334" t="s">
+      <c r="F2" s="333"/>
+      <c r="G2" s="333" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="334"/>
+      <c r="H2" s="333"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
       <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="336"/>
+      <c r="A3" s="335"/>
       <c r="B3" s="169" t="s">
         <v>9</v>
       </c>
@@ -13553,67 +13508,67 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="337"/>
-      <c r="B2" s="340" t="s">
+      <c r="A2" s="336"/>
+      <c r="B2" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340" t="s">
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340" t="s">
+      <c r="F2" s="339"/>
+      <c r="G2" s="339" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="340"/>
+      <c r="H2" s="339"/>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="338"/>
-      <c r="B3" s="340" t="s">
+      <c r="A3" s="337"/>
+      <c r="B3" s="339" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="340" t="s">
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="340"/>
-      <c r="G3" s="340" t="s">
+      <c r="F3" s="339"/>
+      <c r="G3" s="339" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="340"/>
+      <c r="H3" s="339"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="339"/>
-      <c r="B4" s="232" t="s">
+      <c r="A4" s="338"/>
+      <c r="B4" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="232" t="s">
+      <c r="C4" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="232" t="s">
+      <c r="D4" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="231" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="232" t="s">
+      <c r="G4" s="231" t="s">
         <v>337</v>
       </c>
-      <c r="H4" s="232" t="s">
+      <c r="H4" s="231" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="232" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="113">
@@ -13640,7 +13595,7 @@
       <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="233"/>
+      <c r="A6" s="232"/>
       <c r="B6" s="113"/>
       <c r="C6" s="113"/>
       <c r="D6" s="113"/>
@@ -14146,7 +14101,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B26" s="113">
         <v>8517</v>
@@ -14360,52 +14315,52 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="257" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="259" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="257" t="s">
+      <c r="C2" s="259" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="257" t="s">
+      <c r="D2" s="259" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="257" t="s">
+      <c r="E2" s="259" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="257" t="s">
+      <c r="F2" s="259" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="254" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="255" t="s">
-        <v>513</v>
+      <c r="G2" s="256" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="257" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="255"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="259"/>
+      <c r="C3" s="259"/>
+      <c r="D3" s="259"/>
+      <c r="E3" s="259"/>
+      <c r="F3" s="259"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="257"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="256"/>
-      <c r="B4" s="257"/>
-      <c r="C4" s="257"/>
-      <c r="D4" s="257"/>
-      <c r="E4" s="257"/>
-      <c r="F4" s="257"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="255"/>
+      <c r="A4" s="258"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="257"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -14714,7 +14669,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B17" s="119">
         <f>B7/B5*100</f>
@@ -14747,7 +14702,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B18" s="119">
         <f>B8/B5*100</f>
@@ -14780,7 +14735,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B19" s="119">
         <f>B14/B8*100</f>
@@ -14813,7 +14768,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B20" s="119">
         <f>B9/B7*100</f>
@@ -14846,7 +14801,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="102" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B21" s="119">
         <f>(B9+B14)/B7*100</f>
@@ -14879,7 +14834,7 @@
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="102" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B22" s="119">
         <f>(B9+B15)/(B7+B15)*100</f>
@@ -14912,7 +14867,7 @@
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B23" s="119">
         <f>(B13+B14+B15)/(B15+B7)*100</f>
@@ -14956,7 +14911,7 @@
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B25" s="151">
         <v>25.6</v>
@@ -14982,28 +14937,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B26" s="172" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" s="172" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="C26" s="172" t="s">
+      <c r="E26" s="172" t="s">
+        <v>588</v>
+      </c>
+      <c r="F26" s="172" t="s">
+        <v>569</v>
+      </c>
+      <c r="G26" s="172" t="s">
         <v>570</v>
       </c>
-      <c r="D26" s="172" t="s">
-        <v>571</v>
-      </c>
-      <c r="E26" s="172" t="s">
-        <v>589</v>
-      </c>
-      <c r="F26" s="172" t="s">
-        <v>570</v>
-      </c>
-      <c r="G26" s="172" t="s">
-        <v>571</v>
-      </c>
       <c r="H26" s="172" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -15058,31 +15013,31 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="304"/>
-      <c r="B2" s="256" t="s">
+      <c r="A2" s="306"/>
+      <c r="B2" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256" t="s">
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256" t="s">
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="256"/>
-      <c r="J2" s="256"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="304"/>
+      <c r="A3" s="306"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -16118,7 +16073,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -16139,25 +16094,25 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310" t="s">
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="103" t="s">
         <v>123</v>
       </c>
@@ -16362,7 +16317,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="106" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="107">
         <v>36856.199999999997</v>
@@ -16394,7 +16349,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="105" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" s="108"/>
       <c r="C12" s="108"/>
@@ -16568,7 +16523,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="108"/>
       <c r="C18" s="108"/>
@@ -17046,60 +17001,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="341" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
+      <c r="A1" s="340" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="341"/>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
+      <c r="J2" s="340"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
-      <c r="B3" s="310" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="311" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310" t="s">
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="310"/>
+      <c r="A4" s="311"/>
       <c r="B4" s="103" t="s">
         <v>123</v>
       </c>
@@ -17136,31 +17091,31 @@
         <v>157</v>
       </c>
       <c r="B5" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="E5" s="113" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>590</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J5" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>589</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>590</v>
-      </c>
-      <c r="G5" s="113" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J5" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="K5" s="57"/>
       <c r="M5" s="57"/>
@@ -17169,7 +17124,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="105" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
@@ -17189,31 +17144,31 @@
         <v>241</v>
       </c>
       <c r="B7" s="113" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D7" s="113" t="s">
         <v>571</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="E7" s="113" t="s">
+        <v>571</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>591</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>571</v>
+      </c>
+      <c r="H7" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D7" s="113" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>572</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>592</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>572</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="I7" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J7" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="J7" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
@@ -17224,31 +17179,31 @@
         <v>242</v>
       </c>
       <c r="B8" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>592</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>593</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J8" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>573</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>593</v>
-      </c>
-      <c r="F8" s="113" t="s">
-        <v>594</v>
-      </c>
-      <c r="G8" s="113" t="s">
-        <v>576</v>
-      </c>
-      <c r="H8" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J8" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -17259,31 +17214,31 @@
         <v>243</v>
       </c>
       <c r="B9" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>573</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>594</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>581</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>595</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J9" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>574</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>595</v>
-      </c>
-      <c r="F9" s="113" t="s">
-        <v>582</v>
-      </c>
-      <c r="G9" s="113" t="s">
-        <v>596</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J9" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -17294,31 +17249,31 @@
         <v>244</v>
       </c>
       <c r="B10" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D10" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="E10" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>596</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="H10" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>588</v>
-      </c>
-      <c r="F10" s="113" t="s">
-        <v>597</v>
-      </c>
-      <c r="G10" s="113" t="s">
+      <c r="I10" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J10" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="H10" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J10" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -17329,31 +17284,31 @@
         <v>333</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C11" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>597</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>588</v>
+      </c>
+      <c r="G11" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D11" s="113" t="s">
-        <v>575</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>598</v>
-      </c>
-      <c r="F11" s="113" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="H11" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I11" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J11" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -17361,7 +17316,7 @@
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="105" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B12" s="103"/>
       <c r="C12" s="103"/>
@@ -17378,31 +17333,31 @@
         <v>117</v>
       </c>
       <c r="B13" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C13" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D13" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="E13" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>586</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="H13" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="F13" s="113" t="s">
-        <v>587</v>
-      </c>
-      <c r="G13" s="113" t="s">
+      <c r="I13" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J13" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="H13" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J13" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -17413,31 +17368,31 @@
         <v>77</v>
       </c>
       <c r="B14" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="E14" s="113" t="s">
+        <v>598</v>
+      </c>
+      <c r="F14" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="G14" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D14" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>599</v>
-      </c>
-      <c r="F14" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="H14" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J14" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="J14" s="113" t="s">
-        <v>571</v>
       </c>
       <c r="M14" t="s">
         <v>351</v>
@@ -17448,31 +17403,31 @@
         <v>311</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C15" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>576</v>
       </c>
-      <c r="D15" s="113" t="s">
-        <v>577</v>
-      </c>
       <c r="E15" s="113" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H15" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="J15" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>573</v>
-      </c>
-      <c r="J15" s="113" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -17480,31 +17435,31 @@
         <v>78</v>
       </c>
       <c r="B16" s="113" t="s">
+        <v>577</v>
+      </c>
+      <c r="C16" s="113" t="s">
         <v>578</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="D16" s="113" t="s">
         <v>579</v>
       </c>
-      <c r="D16" s="113" t="s">
-        <v>580</v>
-      </c>
       <c r="E16" s="113" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G16" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="H16" s="113" t="s">
         <v>579</v>
       </c>
-      <c r="H16" s="113" t="s">
-        <v>580</v>
-      </c>
       <c r="I16" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J16" s="113" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -17512,36 +17467,36 @@
         <v>312</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H17" s="113" t="s">
+        <v>607</v>
+      </c>
+      <c r="I17" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="I17" s="113" t="s">
-        <v>609</v>
-      </c>
       <c r="J17" s="113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="105" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
@@ -17558,31 +17513,31 @@
         <v>62</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E19" s="113" t="s">
+        <v>601</v>
+      </c>
+      <c r="F19" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="F19" s="113" t="s">
-        <v>603</v>
-      </c>
       <c r="G19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I19" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -17590,31 +17545,31 @@
         <v>63</v>
       </c>
       <c r="B20" s="113" t="s">
+        <v>581</v>
+      </c>
+      <c r="C20" s="113" t="s">
         <v>582</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="D20" s="113" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="113" t="s">
-        <v>584</v>
-      </c>
       <c r="E20" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F20" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G20" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I20" s="113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J20" s="113" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -17622,31 +17577,31 @@
         <v>64</v>
       </c>
       <c r="B21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="F21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="H21" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="I21" s="113" t="s">
+        <v>611</v>
+      </c>
+      <c r="J21" s="113" t="s">
         <v>581</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="E21" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="H21" s="113" t="s">
-        <v>582</v>
-      </c>
-      <c r="I21" s="113" t="s">
-        <v>612</v>
-      </c>
-      <c r="J21" s="113" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -17654,31 +17609,31 @@
         <v>65</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C22" s="113" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E22" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="G22" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>612</v>
+      </c>
+      <c r="I22" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="F22" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="G22" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="H22" s="113" t="s">
-        <v>613</v>
-      </c>
-      <c r="I22" s="113" t="s">
-        <v>582</v>
-      </c>
       <c r="J22" s="113" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -17686,31 +17641,31 @@
         <v>49</v>
       </c>
       <c r="B23" s="113" t="s">
+        <v>585</v>
+      </c>
+      <c r="C23" s="113" t="s">
         <v>586</v>
       </c>
-      <c r="C23" s="113" t="s">
-        <v>587</v>
-      </c>
       <c r="D23" s="113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E23" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F23" s="113" t="s">
+        <v>603</v>
+      </c>
+      <c r="G23" s="113" t="s">
         <v>604</v>
       </c>
-      <c r="G23" s="113" t="s">
-        <v>605</v>
-      </c>
       <c r="H23" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I23" s="113" t="s">
+        <v>613</v>
+      </c>
+      <c r="J23" s="113" t="s">
         <v>614</v>
-      </c>
-      <c r="J23" s="113" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -17718,31 +17673,31 @@
         <v>50</v>
       </c>
       <c r="B24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E24" s="113" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F24" s="113" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G24" s="113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J24" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -17750,31 +17705,31 @@
         <v>67</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E25" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F25" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G25" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H25" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I25" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -17782,31 +17737,31 @@
         <v>68</v>
       </c>
       <c r="B26" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C26" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D26" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="E26" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="E26" s="113" t="s">
-        <v>582</v>
-      </c>
       <c r="F26" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G26" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H26" s="113">
         <v>100000</v>
       </c>
       <c r="I26" s="113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -17814,31 +17769,31 @@
         <v>66</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C27" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="D27" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="D27" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="E27" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="F27" s="113" t="s">
+        <v>597</v>
+      </c>
+      <c r="G27" s="113" t="s">
+        <v>576</v>
+      </c>
+      <c r="H27" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="F27" s="113" t="s">
-        <v>598</v>
-      </c>
-      <c r="G27" s="113" t="s">
-        <v>577</v>
-      </c>
-      <c r="H27" s="113" t="s">
-        <v>571</v>
-      </c>
       <c r="I27" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="J27" s="113" t="s">
         <v>570</v>
-      </c>
-      <c r="J27" s="113" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17887,93 +17842,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="349" t="s">
-        <v>652</v>
-      </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
+      <c r="A1" s="348" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
-      <c r="I2" s="349"/>
+      <c r="A2" s="348"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
+      <c r="I2" s="348"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="257"/>
-      <c r="B3" s="347" t="s">
+      <c r="A3" s="259"/>
+      <c r="B3" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="305" t="s">
+      <c r="C3" s="352" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305" t="s">
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305" t="s">
+      <c r="G3" s="352"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="305"/>
-      <c r="K3" s="305"/>
+      <c r="J3" s="352"/>
+      <c r="K3" s="352"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="257"/>
-      <c r="B4" s="350"/>
-      <c r="C4" s="347" t="s">
+      <c r="A4" s="259"/>
+      <c r="B4" s="349"/>
+      <c r="C4" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="347" t="s">
+      <c r="D4" s="346" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="347" t="s">
+      <c r="E4" s="346" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="347" t="s">
+      <c r="F4" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="347" t="s">
+      <c r="G4" s="346" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="347" t="s">
+      <c r="H4" s="346" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="347" t="s">
+      <c r="I4" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="347" t="s">
+      <c r="J4" s="346" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="347" t="s">
+      <c r="K4" s="346" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="257"/>
-      <c r="B5" s="348"/>
-      <c r="C5" s="348"/>
-      <c r="D5" s="348"/>
-      <c r="E5" s="348"/>
-      <c r="F5" s="348"/>
-      <c r="G5" s="348"/>
-      <c r="H5" s="348"/>
-      <c r="I5" s="348"/>
-      <c r="J5" s="348"/>
-      <c r="K5" s="348"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
@@ -18011,17 +17966,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="321"/>
-      <c r="B7" s="322"/>
-      <c r="C7" s="322"/>
-      <c r="D7" s="322"/>
-      <c r="E7" s="322"/>
-      <c r="F7" s="322"/>
-      <c r="G7" s="322"/>
-      <c r="H7" s="322"/>
-      <c r="I7" s="322"/>
-      <c r="J7" s="322"/>
-      <c r="K7" s="323"/>
+      <c r="A7" s="322"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="323"/>
+      <c r="I7" s="323"/>
+      <c r="J7" s="323"/>
+      <c r="K7" s="324"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
@@ -18200,7 +18155,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B13" s="117">
         <v>9113</v>
@@ -18247,55 +18202,55 @@
       <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="349" t="s">
-        <v>653</v>
-      </c>
-      <c r="B15" s="349"/>
-      <c r="C15" s="349"/>
-      <c r="D15" s="349"/>
-      <c r="E15" s="349"/>
-      <c r="F15" s="349"/>
-      <c r="G15" s="349"/>
-      <c r="H15" s="349"/>
-      <c r="I15" s="349"/>
+      <c r="A15" s="348" t="s">
+        <v>652</v>
+      </c>
+      <c r="B15" s="348"/>
+      <c r="C15" s="348"/>
+      <c r="D15" s="348"/>
+      <c r="E15" s="348"/>
+      <c r="F15" s="348"/>
+      <c r="G15" s="348"/>
+      <c r="H15" s="348"/>
+      <c r="I15" s="348"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="349"/>
-      <c r="B16" s="349"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="349"/>
-      <c r="G16" s="349"/>
-      <c r="H16" s="349"/>
-      <c r="I16" s="349"/>
+      <c r="A16" s="348"/>
+      <c r="B16" s="348"/>
+      <c r="C16" s="348"/>
+      <c r="D16" s="348"/>
+      <c r="E16" s="348"/>
+      <c r="F16" s="348"/>
+      <c r="G16" s="348"/>
+      <c r="H16" s="348"/>
+      <c r="I16" s="348"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="351" t="s">
+      <c r="A17" s="350" t="s">
         <v>378</v>
       </c>
-      <c r="B17" s="347" t="s">
+      <c r="B17" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="342" t="s">
+      <c r="C17" s="341" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="343"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="342" t="s">
+      <c r="D17" s="342"/>
+      <c r="E17" s="343"/>
+      <c r="F17" s="341" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="343"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="342" t="s">
+      <c r="G17" s="342"/>
+      <c r="H17" s="343"/>
+      <c r="I17" s="341" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="343"/>
-      <c r="K17" s="344"/>
+      <c r="J17" s="342"/>
+      <c r="K17" s="343"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="352"/>
-      <c r="B18" s="348"/>
+      <c r="A18" s="351"/>
+      <c r="B18" s="347"/>
       <c r="C18" s="116" t="s">
         <v>9</v>
       </c>
@@ -18332,31 +18287,31 @@
         <v>2561080</v>
       </c>
       <c r="C19" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="E19" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="F19" s="99" t="s">
+        <v>588</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>589</v>
+      </c>
+      <c r="H19" s="99" t="s">
+        <v>590</v>
+      </c>
+      <c r="I19" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>569</v>
+      </c>
+      <c r="K19" s="99" t="s">
         <v>570</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>571</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>589</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>591</v>
-      </c>
-      <c r="I19" s="99" t="s">
-        <v>570</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>570</v>
-      </c>
-      <c r="K19" s="99" t="s">
-        <v>571</v>
       </c>
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
@@ -18370,31 +18325,31 @@
         <v>711954</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F20" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N20" s="57"/>
       <c r="O20" s="57"/>
@@ -18408,31 +18363,31 @@
         <v>876027</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F21" s="99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G21" s="99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K21" s="99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N21" s="57"/>
       <c r="P21" s="57"/>
@@ -18446,31 +18401,31 @@
         <v>121278</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F22" s="99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H22" s="99" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K22" s="99" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -18481,31 +18436,31 @@
         <v>465923</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G23" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K23" s="99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
@@ -18519,66 +18474,66 @@
         <v>385898</v>
       </c>
       <c r="C24" s="99" t="s">
+        <v>616</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" s="99" t="s">
         <v>617</v>
       </c>
-      <c r="D24" s="99" t="s">
-        <v>597</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>618</v>
-      </c>
       <c r="F24" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="H24" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="I24" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="J24" s="99" t="s">
         <v>581</v>
       </c>
-      <c r="H24" s="99" t="s">
-        <v>581</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>582</v>
-      </c>
-      <c r="J24" s="99" t="s">
-        <v>582</v>
-      </c>
       <c r="K24" s="99" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O24" s="57"/>
       <c r="Q24" s="57"/>
       <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="345" t="s">
+      <c r="A25" s="344" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="345" t="s">
+      <c r="B25" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="346" t="s">
+      <c r="C25" s="345" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="346"/>
-      <c r="E25" s="346"/>
-      <c r="F25" s="346" t="s">
+      <c r="D25" s="345"/>
+      <c r="E25" s="345"/>
+      <c r="F25" s="345" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="346"/>
-      <c r="H25" s="346"/>
-      <c r="I25" s="346" t="s">
+      <c r="G25" s="345"/>
+      <c r="H25" s="345"/>
+      <c r="I25" s="345" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="346"/>
-      <c r="K25" s="346"/>
+      <c r="J25" s="345"/>
+      <c r="K25" s="345"/>
       <c r="O25" s="57"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="57"/>
       <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="345"/>
-      <c r="B26" s="345"/>
+      <c r="A26" s="344"/>
+      <c r="B26" s="344"/>
       <c r="C26" s="121" t="s">
         <v>9</v>
       </c>
@@ -18883,7 +18838,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18897,7 +18852,7 @@
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="355"/>
       <c r="B2" s="356" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="356" t="s">
         <v>74</v>
@@ -18909,10 +18864,10 @@
       </c>
       <c r="G2" s="356"/>
       <c r="H2" s="353" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2" s="353" t="s">
         <v>538</v>
-      </c>
-      <c r="I2" s="353" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19022,7 +18977,7 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="354"/>
       <c r="B8" s="128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C8" s="104">
         <v>1357468</v>
@@ -19080,7 +19035,7 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="354"/>
       <c r="B10" s="128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C10" s="104">
         <v>467582</v>
@@ -19137,7 +19092,7 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="354"/>
       <c r="B12" s="128" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C12" s="104">
         <v>1734345</v>
@@ -19310,7 +19265,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="363" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1" s="363"/>
       <c r="C1" s="363"/>
@@ -19325,7 +19280,7 @@
       <c r="A2" s="365">
         <v>15</v>
       </c>
-      <c r="B2" s="294" t="s">
+      <c r="B2" s="296" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="364" t="s">
@@ -19334,45 +19289,45 @@
       <c r="D2" s="364"/>
       <c r="E2" s="364"/>
       <c r="F2" s="364"/>
-      <c r="G2" s="294" t="s">
+      <c r="G2" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="294" t="s">
+      <c r="H2" s="296" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="294" t="s">
+      <c r="I2" s="296" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="365"/>
-      <c r="B3" s="294"/>
-      <c r="C3" s="294" t="s">
+      <c r="B3" s="296"/>
+      <c r="C3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="294" t="s">
+      <c r="D3" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="294"/>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
+      <c r="G3" s="296"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="365"/>
-      <c r="B4" s="294"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
+      <c r="B4" s="296"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -20537,7 +20492,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="375" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1" s="375"/>
       <c r="C1" s="375"/>
@@ -20552,23 +20507,23 @@
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="310"/>
-      <c r="B2" s="256" t="s">
+      <c r="A2" s="311"/>
+      <c r="B2" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256" t="s">
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258" t="s">
         <v>48</v>
       </c>
       <c r="F2" s="369"/>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="258" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="369"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
+      <c r="A3" s="311"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -20593,7 +20548,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B4" s="117">
         <v>280864</v>
@@ -20629,7 +20584,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" s="104">
         <v>122950</v>
@@ -20769,7 +20724,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="375" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B12" s="375"/>
       <c r="C12" s="375"/>
@@ -20781,16 +20736,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="373"/>
-      <c r="B13" s="256" t="s">
+      <c r="B13" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="256"/>
-      <c r="D13" s="256"/>
-      <c r="E13" s="256" t="s">
+      <c r="C13" s="258"/>
+      <c r="D13" s="258"/>
+      <c r="E13" s="258" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="369"/>
-      <c r="G13" s="256" t="s">
+      <c r="G13" s="258" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="369"/>
@@ -20857,7 +20812,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B17" s="104">
         <v>199353</v>
@@ -21126,76 +21081,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="349" t="s">
-        <v>658</v>
-      </c>
-      <c r="B1" s="349"/>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
+      <c r="A1" s="348" t="s">
+        <v>657</v>
+      </c>
+      <c r="B1" s="348"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="349"/>
-      <c r="B2" s="349"/>
-      <c r="C2" s="349"/>
-      <c r="D2" s="349"/>
-      <c r="E2" s="349"/>
-      <c r="F2" s="349"/>
-      <c r="G2" s="349"/>
-      <c r="H2" s="349"/>
+      <c r="A2" s="348"/>
+      <c r="B2" s="348"/>
+      <c r="C2" s="348"/>
+      <c r="D2" s="348"/>
+      <c r="E2" s="348"/>
+      <c r="F2" s="348"/>
+      <c r="G2" s="348"/>
+      <c r="H2" s="348"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
-      <c r="B3" s="256" t="s">
+      <c r="A3" s="311"/>
+      <c r="B3" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256" t="s">
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258" t="s">
         <v>48</v>
       </c>
       <c r="F3" s="369"/>
-      <c r="G3" s="256" t="s">
+      <c r="G3" s="258" t="s">
         <v>47</v>
       </c>
       <c r="H3" s="369"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="310"/>
-      <c r="B4" s="265" t="s">
+      <c r="A4" s="311"/>
+      <c r="B4" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="265" t="s">
+      <c r="D4" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="265" t="s">
+      <c r="E4" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="265" t="s">
+      <c r="F4" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="265" t="s">
+      <c r="G4" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="265" t="s">
+      <c r="H4" s="267" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="265"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
+      <c r="A5" s="311"/>
+      <c r="B5" s="267"/>
+      <c r="C5" s="267"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="376" t="s">
@@ -21510,7 +21465,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21523,14 +21478,14 @@
       </c>
       <c r="D2" s="383"/>
       <c r="E2" s="383" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F2" s="383"/>
       <c r="G2" s="382" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="382" t="s">
         <v>538</v>
-      </c>
-      <c r="H2" s="382" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -21757,7 +21712,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N13" s="57"/>
     </row>
@@ -21767,18 +21722,18 @@
         <v>9</v>
       </c>
       <c r="C14" s="383" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D14" s="383"/>
       <c r="E14" s="383" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F14" s="383"/>
       <c r="G14" s="382" t="s">
+        <v>537</v>
+      </c>
+      <c r="H14" s="382" t="s">
         <v>538</v>
-      </c>
-      <c r="H14" s="382" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -22106,7 +22061,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22127,10 +22082,10 @@
         <v>47</v>
       </c>
       <c r="G2" s="382" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="382" t="s">
         <v>538</v>
-      </c>
-      <c r="H2" s="382" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -22155,7 +22110,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="139" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B5" s="117">
         <v>859472</v>
@@ -22398,7 +22353,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="385" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B16" s="385"/>
       <c r="C16" s="385"/>
@@ -22430,33 +22385,33 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249" t="s">
-        <v>682</v>
-      </c>
-      <c r="B20" s="248" t="s">
+      <c r="A20" s="248" t="s">
+        <v>681</v>
+      </c>
+      <c r="B20" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="248" t="s">
+      <c r="C20" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="248" t="s">
+      <c r="D20" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="248" t="s">
+      <c r="E20" s="247" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="248" t="s">
+      <c r="F20" s="247" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="247" t="s">
+      <c r="G20" s="246" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" s="246" t="s">
         <v>538</v>
-      </c>
-      <c r="H20" s="247" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -22487,7 +22442,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="104">
         <v>436098</v>
@@ -22513,7 +22468,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" s="104">
         <v>196656</v>
@@ -22539,7 +22494,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B24" s="104">
         <v>84662</v>
@@ -22565,7 +22520,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B25" s="104">
         <v>80236</v>
@@ -22591,7 +22546,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B26" s="104">
         <v>94371</v>
@@ -22756,36 +22711,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="264"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="266"/>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="265" t="s">
+      <c r="E2" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="264"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
+      <c r="A3" s="266"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
@@ -22812,12 +22767,12 @@
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="261"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="263"/>
+      <c r="A5" s="263"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="265"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -23184,44 +23139,44 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="259" t="s">
+      <c r="A24" s="261" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="259" t="s">
+      <c r="B24" s="261" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="259" t="s">
-        <v>503</v>
-      </c>
-      <c r="D24" s="259"/>
-      <c r="E24" s="256" t="s">
+      <c r="C24" s="261" t="s">
+        <v>502</v>
+      </c>
+      <c r="D24" s="261"/>
+      <c r="E24" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="256"/>
-      <c r="G24" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H24" s="258" t="s">
-        <v>513</v>
+      <c r="F24" s="258"/>
+      <c r="G24" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H24" s="260" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="259"/>
-      <c r="B25" s="259"/>
-      <c r="C25" s="259"/>
-      <c r="D25" s="259"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="259"/>
-      <c r="H25" s="258"/>
+      <c r="A25" s="261"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="258"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="260"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="259"/>
-      <c r="B26" s="259"/>
+      <c r="A26" s="261"/>
+      <c r="B26" s="261"/>
       <c r="C26" s="96" t="s">
         <v>307</v>
       </c>
@@ -23234,8 +23189,8 @@
       <c r="F26" s="96" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="259"/>
-      <c r="H26" s="258"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="260"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
@@ -23589,28 +23544,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="387" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="346" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="345" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="346" t="s">
+      <c r="C2" s="345" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346" t="s">
-        <v>519</v>
-      </c>
-      <c r="F2" s="346"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2" s="345"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="387"/>
-      <c r="B3" s="346"/>
+      <c r="B3" s="345"/>
       <c r="C3" s="105" t="s">
         <v>45</v>
       </c>
@@ -23761,7 +23716,7 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -23771,14 +23726,14 @@
       <c r="B12" s="388" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="310" t="s">
+      <c r="C12" s="311" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="310"/>
-      <c r="E12" s="310" t="s">
-        <v>519</v>
-      </c>
-      <c r="F12" s="310"/>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311" t="s">
+        <v>518</v>
+      </c>
+      <c r="F12" s="311"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="388"/>
@@ -23818,7 +23773,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B15" s="117">
         <v>719781</v>
@@ -23878,7 +23833,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" s="117">
         <v>57</v>
@@ -23898,7 +23853,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="117">
         <v>565</v>
@@ -23938,7 +23893,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B21" s="117">
         <v>92889</v>
@@ -23958,7 +23913,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B22" s="117">
         <v>49963</v>
@@ -23978,7 +23933,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B23" s="117">
         <v>10031</v>
@@ -24078,7 +24033,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="99" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B28" s="117">
         <v>8856</v>
@@ -24098,7 +24053,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B29" s="117">
         <v>1752</v>
@@ -24178,7 +24133,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B33" s="117">
         <v>35962</v>
@@ -24323,7 +24278,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24344,10 +24299,10 @@
         <v>47</v>
       </c>
       <c r="G2" s="382" t="s">
+        <v>537</v>
+      </c>
+      <c r="H2" s="382" t="s">
         <v>538</v>
-      </c>
-      <c r="H2" s="382" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -24512,7 +24467,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -24533,10 +24488,10 @@
         <v>47</v>
       </c>
       <c r="G12" s="382" t="s">
+        <v>537</v>
+      </c>
+      <c r="H12" s="382" t="s">
         <v>538</v>
-      </c>
-      <c r="H12" s="382" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -24962,7 +24917,7 @@
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="389" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B31" s="389"/>
       <c r="C31" s="389"/>
@@ -24973,23 +24928,23 @@
       <c r="H31" s="389"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="310"/>
-      <c r="B32" s="256" t="s">
+      <c r="A32" s="311"/>
+      <c r="B32" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="256"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="256" t="s">
+      <c r="C32" s="258"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258" t="s">
         <v>48</v>
       </c>
       <c r="F32" s="369"/>
-      <c r="G32" s="256" t="s">
+      <c r="G32" s="258" t="s">
         <v>47</v>
       </c>
       <c r="H32" s="369"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="310"/>
+      <c r="A33" s="311"/>
       <c r="B33" s="96" t="s">
         <v>9</v>
       </c>
@@ -25040,7 +24995,7 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B35" s="117">
         <v>1948371</v>
@@ -25092,7 +25047,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B37" s="117">
         <v>1042777</v>
@@ -25118,7 +25073,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B38" s="117">
         <v>583259</v>
@@ -25144,7 +25099,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="99" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B39" s="117">
         <v>847936</v>
@@ -25170,7 +25125,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B40" s="117">
         <v>384801</v>
@@ -25196,7 +25151,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" s="117">
         <v>460791</v>
@@ -25222,7 +25177,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B42" s="117">
         <v>2105</v>
@@ -25248,7 +25203,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B43" s="117">
         <v>5176</v>
@@ -25323,39 +25278,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="349" t="s">
-        <v>667</v>
-      </c>
-      <c r="C1" s="349"/>
-      <c r="D1" s="349"/>
-      <c r="E1" s="349"/>
-      <c r="F1" s="349"/>
-      <c r="G1" s="349"/>
-      <c r="H1" s="349"/>
-      <c r="I1" s="349"/>
+      <c r="B1" s="348" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1" s="348"/>
+      <c r="D1" s="348"/>
+      <c r="E1" s="348"/>
+      <c r="F1" s="348"/>
+      <c r="G1" s="348"/>
+      <c r="H1" s="348"/>
+      <c r="I1" s="348"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="256" t="s">
+      <c r="B2" s="306"/>
+      <c r="C2" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="311" t="s">
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="312" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="312"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="311" t="s">
+      <c r="G2" s="313"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="312" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="312"/>
-      <c r="K2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="314"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="304"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="96" t="s">
         <v>9</v>
       </c>
@@ -25417,16 +25372,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="261"/>
-      <c r="C5" s="262"/>
-      <c r="D5" s="262"/>
-      <c r="E5" s="262"/>
-      <c r="F5" s="262"/>
-      <c r="G5" s="262"/>
-      <c r="H5" s="262"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="263"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="264"/>
+      <c r="H5" s="264"/>
+      <c r="I5" s="264"/>
+      <c r="J5" s="264"/>
+      <c r="K5" s="265"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="147" t="s">
@@ -25653,16 +25608,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="311"/>
-      <c r="C13" s="312"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="312"/>
-      <c r="F13" s="312"/>
-      <c r="G13" s="312"/>
-      <c r="H13" s="312"/>
-      <c r="I13" s="312"/>
-      <c r="J13" s="312"/>
-      <c r="K13" s="313"/>
+      <c r="B13" s="312"/>
+      <c r="C13" s="313"/>
+      <c r="D13" s="313"/>
+      <c r="E13" s="313"/>
+      <c r="F13" s="313"/>
+      <c r="G13" s="313"/>
+      <c r="H13" s="313"/>
+      <c r="I13" s="313"/>
+      <c r="J13" s="313"/>
+      <c r="K13" s="314"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
@@ -25963,7 +25918,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="390" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B1" s="390"/>
       <c r="C1" s="390"/>
@@ -25989,21 +25944,21 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="391"/>
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="310" t="s">
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="392"/>
@@ -26349,7 +26304,7 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="390" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B16" s="390"/>
       <c r="C16" s="390"/>
@@ -26374,25 +26329,25 @@
       <c r="J17" s="390"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="310"/>
-      <c r="B18" s="310" t="s">
+      <c r="A18" s="311"/>
+      <c r="B18" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="310"/>
-      <c r="D18" s="310"/>
-      <c r="E18" s="310" t="s">
+      <c r="C18" s="311"/>
+      <c r="D18" s="311"/>
+      <c r="E18" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="310"/>
-      <c r="G18" s="310"/>
-      <c r="H18" s="310" t="s">
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="310"/>
-      <c r="J18" s="310"/>
+      <c r="I18" s="311"/>
+      <c r="J18" s="311"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="310"/>
+      <c r="A19" s="311"/>
       <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
@@ -26780,42 +26735,42 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="393" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="265" t="s">
+      <c r="H2" s="267" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="393"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -26965,14 +26920,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="310"/>
-      <c r="B9" s="310"/>
-      <c r="C9" s="310"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="310"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
+      <c r="A9" s="311"/>
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
@@ -27120,14 +27075,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="310"/>
-      <c r="B15" s="310"/>
-      <c r="C15" s="310"/>
-      <c r="D15" s="310"/>
-      <c r="E15" s="310"/>
-      <c r="F15" s="310"/>
-      <c r="G15" s="310"/>
-      <c r="H15" s="310"/>
+      <c r="A15" s="311"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
@@ -27318,44 +27273,44 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="265" t="s">
-        <v>541</v>
-      </c>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="267" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="393" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="265" t="s">
+      <c r="H2" s="267" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="265"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
+      <c r="A3" s="267"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="393"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -27509,7 +27464,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B9" s="104">
         <v>8450</v>
@@ -27539,7 +27494,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B10" s="104">
         <v>4726</v>
@@ -27974,7 +27929,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B26" s="104">
         <v>8191</v>
@@ -28003,7 +27958,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B27" s="104">
         <v>4084</v>
@@ -28429,7 +28384,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B43" s="152">
         <v>259</v>
@@ -28458,7 +28413,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B44" s="152">
         <v>642</v>
@@ -28767,40 +28722,40 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="265" t="s">
+      <c r="E2" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="393" t="s">
+        <v>541</v>
+      </c>
+      <c r="H2" s="393" t="s">
         <v>542</v>
       </c>
-      <c r="H2" s="393" t="s">
-        <v>543</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
       <c r="G3" s="393"/>
       <c r="H3" s="393"/>
     </row>
@@ -29604,7 +29559,7 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -29623,7 +29578,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29658,7 +29613,7 @@
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="155" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="156">
         <v>647629</v>
@@ -29798,7 +29753,7 @@
     </row>
     <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="155" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B8" s="156">
         <v>811479</v>
@@ -30098,7 +30053,7 @@
     </row>
     <row r="18" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="155" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B18" s="156">
         <v>650043</v>
@@ -30130,7 +30085,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="158" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B19" s="117">
         <v>102608</v>
@@ -30366,7 +30321,7 @@
     </row>
     <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="155" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B27" s="156">
         <v>599887</v>
@@ -30570,7 +30525,7 @@
     </row>
     <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="155" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B34" s="156">
         <v>837313</v>
@@ -30863,28 +30818,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="256" t="s">
-        <v>521</v>
-      </c>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="258" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="256" t="s">
+      <c r="F2" s="258" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="258" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
+      <c r="A3" s="258"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -30894,9 +30849,9 @@
       <c r="D3" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -31453,13 +31408,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="394"/>
       <c r="B2" s="397" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C2" s="397"/>
       <c r="D2" s="397"/>
@@ -32363,7 +32318,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -32374,28 +32329,28 @@
       <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="245" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="245" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="246" t="s">
+      <c r="C2" s="245" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="246" t="s">
+      <c r="D2" s="245" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="246" t="s">
+      <c r="E2" s="245" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="246" t="s">
+      <c r="F2" s="245" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="246" t="s">
+      <c r="G2" s="245" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="245" t="s">
         <v>165</v>
       </c>
     </row>
@@ -32595,7 +32550,7 @@
     </row>
     <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -32633,7 +32588,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B13" s="149">
         <v>214763</v>
@@ -32920,40 +32875,40 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="305" t="s">
-        <v>473</v>
-      </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="347" t="s">
-        <v>479</v>
-      </c>
-      <c r="F2" s="347" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="352" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" s="352"/>
+      <c r="D2" s="352"/>
+      <c r="E2" s="346" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" s="346" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="347" t="s">
+      <c r="G2" s="346" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="347" t="s">
+      <c r="H2" s="346" t="s">
         <v>259</v>
       </c>
-      <c r="I2" s="347" t="s">
+      <c r="I2" s="346" t="s">
         <v>260</v>
       </c>
-      <c r="J2" s="347" t="s">
+      <c r="J2" s="346" t="s">
         <v>261</v>
       </c>
-      <c r="K2" s="347" t="s">
+      <c r="K2" s="346" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
+      <c r="A3" s="258"/>
       <c r="B3" s="116" t="s">
         <v>9</v>
       </c>
@@ -32963,13 +32918,13 @@
       <c r="D3" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="348"/>
-      <c r="F3" s="348"/>
-      <c r="G3" s="348"/>
-      <c r="H3" s="348"/>
-      <c r="I3" s="348"/>
-      <c r="J3" s="348"/>
-      <c r="K3" s="348"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
+      <c r="K3" s="347"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -33008,7 +32963,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B5" s="113">
         <v>346774</v>
@@ -33043,7 +32998,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B6" s="113">
         <v>8914</v>
@@ -33113,7 +33068,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="113">
         <v>286</v>
@@ -33148,7 +33103,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" s="113">
         <v>920</v>
@@ -33218,7 +33173,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B11" s="113">
         <v>60486</v>
@@ -33253,7 +33208,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B12" s="113">
         <v>40808</v>
@@ -33288,7 +33243,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B13" s="113">
         <v>10459</v>
@@ -33323,7 +33278,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B14" s="113">
         <v>254</v>
@@ -33358,7 +33313,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B15" s="113">
         <v>4215</v>
@@ -33393,7 +33348,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B16" s="113">
         <v>276</v>
@@ -33428,7 +33383,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" s="113">
         <v>1497</v>
@@ -33463,7 +33418,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18" s="113">
         <v>4606</v>
@@ -33498,7 +33453,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" s="113">
         <v>4273</v>
@@ -33568,7 +33523,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="113">
         <v>5846</v>
@@ -33603,7 +33558,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="113">
         <v>296</v>
@@ -33638,7 +33593,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="113">
         <v>15626</v>
@@ -33673,7 +33628,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B24" s="113">
         <v>10043</v>
@@ -33708,7 +33663,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B25" s="113">
         <v>183</v>
@@ -33794,11 +33749,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
+      <c r="A2" s="258"/>
       <c r="B2" s="398" t="s">
         <v>9</v>
       </c>
@@ -33825,7 +33780,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
+      <c r="A3" s="258"/>
       <c r="B3" s="399"/>
       <c r="C3" s="399"/>
       <c r="D3" s="399"/>
@@ -33877,7 +33832,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="113">
         <v>333595</v>
@@ -33906,7 +33861,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B7" s="113">
         <v>17161</v>
@@ -33964,7 +33919,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="113">
         <v>1150</v>
@@ -33993,7 +33948,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B10" s="113">
         <v>654</v>
@@ -34051,7 +34006,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12" s="113">
         <v>49987</v>
@@ -34080,7 +34035,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" s="113">
         <v>24746</v>
@@ -34109,7 +34064,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" s="113">
         <v>8792</v>
@@ -34138,7 +34093,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" s="113">
         <v>537</v>
@@ -34167,7 +34122,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" s="113">
         <v>2507</v>
@@ -34196,7 +34151,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" s="113">
         <v>626</v>
@@ -34225,7 +34180,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18" s="113">
         <v>1210</v>
@@ -34254,7 +34209,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" s="113">
         <v>6463</v>
@@ -34312,7 +34267,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="113">
         <v>34052</v>
@@ -34341,7 +34296,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="113">
         <v>5256</v>
@@ -34370,7 +34325,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="113">
         <v>552</v>
@@ -34399,7 +34354,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B24" s="113">
         <v>11195</v>
@@ -34504,54 +34459,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="256"/>
-      <c r="B2" s="265" t="s">
+      <c r="A2" s="258"/>
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="265" t="s">
+      <c r="D2" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="265" t="s">
+      <c r="E2" s="267" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="265" t="s">
+      <c r="F2" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="265" t="s">
+      <c r="G2" s="267" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="265" t="s">
+      <c r="H2" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="265" t="s">
+      <c r="I2" s="267" t="s">
         <v>272</v>
       </c>
-      <c r="J2" s="265" t="s">
+      <c r="J2" s="267" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="265" t="s">
+      <c r="K2" s="267" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
-      <c r="B3" s="265"/>
-      <c r="C3" s="265"/>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="265"/>
-      <c r="H3" s="265"/>
-      <c r="I3" s="265"/>
-      <c r="J3" s="265"/>
-      <c r="K3" s="265"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="267"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
+      <c r="K3" s="267"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -34603,7 +34558,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="113">
         <v>499079</v>
@@ -34638,7 +34593,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B7" s="113">
         <v>2938</v>
@@ -34708,7 +34663,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="113">
         <v>464</v>
@@ -34743,7 +34698,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B10" s="113">
         <v>940</v>
@@ -34813,7 +34768,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12" s="113">
         <v>69377</v>
@@ -34848,7 +34803,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" s="113">
         <v>35038</v>
@@ -34883,7 +34838,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" s="113">
         <v>12382</v>
@@ -34918,7 +34873,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" s="113">
         <v>464</v>
@@ -34953,7 +34908,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B16" s="113">
         <v>3285</v>
@@ -34988,7 +34943,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B17" s="113">
         <v>3565</v>
@@ -35023,7 +34978,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B18" s="113">
         <v>13490</v>
@@ -35058,7 +35013,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B19" s="113">
         <v>12286</v>
@@ -35128,7 +35083,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B21" s="113">
         <v>3291</v>
@@ -35163,7 +35118,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B22" s="113">
         <v>1391</v>
@@ -35198,7 +35153,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B23" s="113">
         <v>21633</v>
@@ -35233,7 +35188,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B24" s="113">
         <v>16482</v>
@@ -35268,7 +35223,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B25" s="113">
         <v>1013</v>
@@ -35356,26 +35311,26 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="227" t="s">
-        <v>523</v>
+      <c r="A2" s="226" t="s">
+        <v>522</v>
       </c>
       <c r="B2" s="105" t="s">
         <v>392</v>
       </c>
-      <c r="C2" s="227" t="s">
+      <c r="C2" s="226" t="s">
         <v>393</v>
       </c>
-      <c r="D2" s="227" t="s">
+      <c r="D2" s="226" t="s">
         <v>394</v>
       </c>
-      <c r="E2" s="227" t="s">
+      <c r="E2" s="226" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="226" t="s">
         <v>397</v>
       </c>
       <c r="I2" s="57"/>
@@ -35384,16 +35339,16 @@
       <c r="A3" s="97" t="s">
         <v>391</v>
       </c>
-      <c r="B3" s="228">
+      <c r="B3" s="227">
         <v>56</v>
       </c>
-      <c r="C3" s="228">
+      <c r="C3" s="227">
         <v>44.5</v>
       </c>
-      <c r="D3" s="228">
+      <c r="D3" s="227">
         <v>20.5</v>
       </c>
-      <c r="E3" s="228">
+      <c r="E3" s="227">
         <v>57.6</v>
       </c>
       <c r="F3" s="113">
@@ -35854,715 +35809,715 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="234" t="s">
-        <v>680</v>
-      </c>
-      <c r="B1" s="235">
+      <c r="A1" s="233" t="s">
+        <v>679</v>
+      </c>
+      <c r="B1" s="234">
         <v>2017</v>
       </c>
-      <c r="C1" s="235">
+      <c r="C1" s="234">
         <v>2018</v>
       </c>
-      <c r="D1" s="235">
+      <c r="D1" s="234">
         <v>2019</v>
       </c>
-      <c r="E1" s="235">
+      <c r="E1" s="234">
         <v>2020</v>
       </c>
-      <c r="F1" s="235">
+      <c r="F1" s="234">
         <v>2021</v>
       </c>
-      <c r="G1" s="238">
+      <c r="G1" s="237">
         <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="235" t="s">
         <v>246</v>
       </c>
-      <c r="B2" s="237">
+      <c r="B2" s="236">
         <v>66.400000000000006</v>
       </c>
-      <c r="C2" s="237">
+      <c r="C2" s="236">
         <v>66.3</v>
       </c>
-      <c r="D2" s="237">
+      <c r="D2" s="236">
         <v>66.5</v>
       </c>
-      <c r="E2" s="237">
+      <c r="E2" s="236">
         <v>67.099999999999994</v>
       </c>
-      <c r="F2" s="237">
+      <c r="F2" s="236">
         <v>64.400000000000006</v>
       </c>
-      <c r="G2" s="239">
+      <c r="G2" s="238">
         <v>66.236019999999996</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="235" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="237">
+      <c r="B3" s="236">
         <v>65.3</v>
       </c>
-      <c r="C3" s="237">
+      <c r="C3" s="236">
         <v>65.8</v>
       </c>
-      <c r="D3" s="237">
+      <c r="D3" s="236">
         <v>66.8</v>
       </c>
-      <c r="E3" s="237">
+      <c r="E3" s="236">
         <v>66.2</v>
       </c>
-      <c r="F3" s="237">
+      <c r="F3" s="236">
         <v>62.9</v>
       </c>
-      <c r="G3" s="239">
+      <c r="G3" s="238">
         <v>66.81371</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="235" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="237">
+      <c r="B4" s="236">
         <v>67</v>
       </c>
-      <c r="C4" s="237">
+      <c r="C4" s="236">
         <v>70.7</v>
       </c>
-      <c r="D4" s="237">
+      <c r="D4" s="236">
         <v>70.2</v>
       </c>
-      <c r="E4" s="237">
+      <c r="E4" s="236">
         <v>68.7</v>
       </c>
-      <c r="F4" s="237">
+      <c r="F4" s="236">
         <v>62.9</v>
       </c>
-      <c r="G4" s="239">
+      <c r="G4" s="238">
         <v>68.85136</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="235" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="237">
+      <c r="B5" s="236">
         <v>47.7</v>
       </c>
-      <c r="C5" s="237">
+      <c r="C5" s="236">
         <v>45.2</v>
       </c>
-      <c r="D5" s="237">
+      <c r="D5" s="236">
         <v>42.5</v>
       </c>
-      <c r="E5" s="237">
+      <c r="E5" s="236">
         <v>48.1</v>
       </c>
-      <c r="F5" s="237">
+      <c r="F5" s="236">
         <v>47.7</v>
       </c>
-      <c r="G5" s="239">
+      <c r="G5" s="238">
         <v>49.409399999999998</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="235" t="s">
         <v>250</v>
       </c>
-      <c r="B6" s="237">
+      <c r="B6" s="236">
         <v>53.1</v>
       </c>
-      <c r="C6" s="237">
+      <c r="C6" s="236">
         <v>49.4</v>
       </c>
-      <c r="D6" s="237">
+      <c r="D6" s="236">
         <v>54.5</v>
       </c>
-      <c r="E6" s="237">
+      <c r="E6" s="236">
         <v>62</v>
       </c>
-      <c r="F6" s="237">
+      <c r="F6" s="236">
         <v>51.6</v>
       </c>
-      <c r="G6" s="239">
+      <c r="G6" s="238">
         <v>54.021070000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="235" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="237">
+      <c r="B7" s="236">
         <v>32.1</v>
       </c>
-      <c r="C7" s="237">
+      <c r="C7" s="236">
         <v>34.1</v>
       </c>
-      <c r="D7" s="237">
+      <c r="D7" s="236">
         <v>39.700000000000003</v>
       </c>
-      <c r="E7" s="237">
+      <c r="E7" s="236">
         <v>55.9</v>
       </c>
-      <c r="F7" s="237">
+      <c r="F7" s="236">
         <v>41.4</v>
       </c>
-      <c r="G7" s="239">
+      <c r="G7" s="238">
         <v>43.75817</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="235" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="237">
+      <c r="B8" s="236">
         <v>52.5</v>
       </c>
-      <c r="C8" s="237">
+      <c r="C8" s="236">
         <v>52.5</v>
       </c>
-      <c r="D8" s="237">
+      <c r="D8" s="236">
         <v>54.5</v>
       </c>
-      <c r="E8" s="237">
+      <c r="E8" s="236">
         <v>65.400000000000006</v>
       </c>
-      <c r="F8" s="237">
+      <c r="F8" s="236">
         <v>54.8</v>
       </c>
-      <c r="G8" s="239">
+      <c r="G8" s="238">
         <v>57.706569999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="236" t="s">
+      <c r="A9" s="235" t="s">
         <v>253</v>
       </c>
-      <c r="B9" s="237">
+      <c r="B9" s="236">
         <v>54.9</v>
       </c>
-      <c r="C9" s="237">
+      <c r="C9" s="236">
         <v>53.9</v>
       </c>
-      <c r="D9" s="237">
+      <c r="D9" s="236">
         <v>44.2</v>
       </c>
-      <c r="E9" s="237">
+      <c r="E9" s="236">
         <v>59.9</v>
       </c>
-      <c r="F9" s="237">
+      <c r="F9" s="236">
         <v>53</v>
       </c>
-      <c r="G9" s="239">
+      <c r="G9" s="238">
         <v>52.322470000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="236" t="s">
+      <c r="A10" s="235" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="237">
+      <c r="B10" s="236">
         <v>54.4</v>
       </c>
-      <c r="C10" s="237">
+      <c r="C10" s="236">
         <v>54</v>
       </c>
-      <c r="D10" s="237">
+      <c r="D10" s="236">
         <v>49.3</v>
       </c>
-      <c r="E10" s="237">
+      <c r="E10" s="236">
         <v>48.3</v>
       </c>
-      <c r="F10" s="237">
+      <c r="F10" s="236">
         <v>47.5</v>
       </c>
-      <c r="G10" s="239">
+      <c r="G10" s="238">
         <v>51.267510000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="236" t="s">
+      <c r="A11" s="235" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="237">
+      <c r="B11" s="236">
         <v>41.9</v>
       </c>
-      <c r="C11" s="237">
+      <c r="C11" s="236">
         <v>42.1</v>
       </c>
-      <c r="D11" s="237">
+      <c r="D11" s="236">
         <v>41.3</v>
       </c>
-      <c r="E11" s="237">
+      <c r="E11" s="236">
         <v>52.3</v>
       </c>
-      <c r="F11" s="237">
+      <c r="F11" s="236">
         <v>54.7</v>
       </c>
-      <c r="G11" s="239">
+      <c r="G11" s="238">
         <v>55.436450000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="236" t="s">
+      <c r="A12" s="235" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="237">
+      <c r="B12" s="236">
         <v>55.1</v>
       </c>
-      <c r="C12" s="237">
+      <c r="C12" s="236">
         <v>51.6</v>
       </c>
-      <c r="D12" s="237">
+      <c r="D12" s="236">
         <v>50.4</v>
       </c>
-      <c r="E12" s="237">
+      <c r="E12" s="236">
         <v>47.7</v>
       </c>
-      <c r="F12" s="237">
+      <c r="F12" s="236">
         <v>49.5</v>
       </c>
-      <c r="G12" s="239">
+      <c r="G12" s="238">
         <v>51.842039999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="236" t="s">
-        <v>479</v>
-      </c>
-      <c r="B13" s="237">
+      <c r="A13" s="235" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="236">
         <v>55.6</v>
       </c>
-      <c r="C13" s="237">
+      <c r="C13" s="236">
         <v>49.2</v>
       </c>
-      <c r="D13" s="237">
+      <c r="D13" s="236">
         <v>49.5</v>
       </c>
-      <c r="E13" s="237">
+      <c r="E13" s="236">
         <v>46.9</v>
       </c>
-      <c r="F13" s="237">
+      <c r="F13" s="236">
         <v>45.4</v>
       </c>
-      <c r="G13" s="239">
+      <c r="G13" s="238">
         <v>51.242759999999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="236" t="s">
+      <c r="A14" s="235" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="237">
+      <c r="B14" s="236">
         <v>54.6</v>
       </c>
-      <c r="C14" s="237">
+      <c r="C14" s="236">
         <v>52</v>
       </c>
-      <c r="D14" s="237">
+      <c r="D14" s="236">
         <v>52.6</v>
       </c>
-      <c r="E14" s="237">
+      <c r="E14" s="236">
         <v>50.4</v>
       </c>
-      <c r="F14" s="237">
+      <c r="F14" s="236">
         <v>56.7</v>
       </c>
-      <c r="G14" s="239">
+      <c r="G14" s="238">
         <v>55.303289999999997</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="236" t="s">
+      <c r="A15" s="235" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="237">
+      <c r="B15" s="236">
         <v>61.5</v>
       </c>
-      <c r="C15" s="237">
+      <c r="C15" s="236">
         <v>53.7</v>
       </c>
-      <c r="D15" s="237">
+      <c r="D15" s="236">
         <v>55.8</v>
       </c>
-      <c r="E15" s="237">
+      <c r="E15" s="236">
         <v>56.1</v>
       </c>
-      <c r="F15" s="237">
+      <c r="F15" s="236">
         <v>57.6</v>
       </c>
-      <c r="G15" s="239">
+      <c r="G15" s="238">
         <v>60.88532</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="236" t="s">
+      <c r="A16" s="235" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="237">
+      <c r="B16" s="236">
         <v>61.9</v>
       </c>
-      <c r="C16" s="237">
+      <c r="C16" s="236">
         <v>57</v>
       </c>
-      <c r="D16" s="237">
+      <c r="D16" s="236">
         <v>55.6</v>
       </c>
-      <c r="E16" s="237">
+      <c r="E16" s="236">
         <v>58.6</v>
       </c>
-      <c r="F16" s="237">
+      <c r="F16" s="236">
         <v>57.3</v>
       </c>
-      <c r="G16" s="239">
+      <c r="G16" s="238">
         <v>58.415930000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="235" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="237">
+      <c r="B17" s="236">
         <v>38.9</v>
       </c>
-      <c r="C17" s="237">
+      <c r="C17" s="236">
         <v>44.5</v>
       </c>
-      <c r="D17" s="237">
+      <c r="D17" s="236">
         <v>47.3</v>
       </c>
-      <c r="E17" s="237">
+      <c r="E17" s="236">
         <v>43</v>
       </c>
-      <c r="F17" s="237">
+      <c r="F17" s="236">
         <v>52.9</v>
       </c>
-      <c r="G17" s="239">
+      <c r="G17" s="238">
         <v>56.529690000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="236" t="s">
+      <c r="A18" s="235" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="237">
+      <c r="B18" s="236">
         <v>49.6</v>
       </c>
-      <c r="C18" s="237">
+      <c r="C18" s="236">
         <v>50.1</v>
       </c>
-      <c r="D18" s="237">
+      <c r="D18" s="236">
         <v>42.8</v>
       </c>
-      <c r="E18" s="237">
+      <c r="E18" s="236">
         <v>49.8</v>
       </c>
-      <c r="F18" s="237">
+      <c r="F18" s="236">
         <v>46.8</v>
       </c>
-      <c r="G18" s="239">
+      <c r="G18" s="238">
         <v>50.364139999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="236" t="s">
+      <c r="A19" s="235" t="s">
         <v>262</v>
       </c>
-      <c r="B19" s="237">
+      <c r="B19" s="236">
         <v>45.1</v>
       </c>
-      <c r="C19" s="237">
+      <c r="C19" s="236">
         <v>45.2</v>
       </c>
-      <c r="D19" s="237">
+      <c r="D19" s="236">
         <v>47</v>
       </c>
-      <c r="E19" s="237">
+      <c r="E19" s="236">
         <v>55.6</v>
       </c>
-      <c r="F19" s="237">
+      <c r="F19" s="236">
         <v>49.8</v>
       </c>
-      <c r="G19" s="239">
+      <c r="G19" s="238">
         <v>45.371720000000003</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="236" t="s">
+      <c r="A20" s="235" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="237">
+      <c r="B20" s="236">
         <v>49.4</v>
       </c>
-      <c r="C20" s="237">
+      <c r="C20" s="236">
         <v>56.9</v>
       </c>
-      <c r="D20" s="237">
+      <c r="D20" s="236">
         <v>52.3</v>
       </c>
-      <c r="E20" s="237">
+      <c r="E20" s="236">
         <v>44.4</v>
       </c>
-      <c r="F20" s="237">
+      <c r="F20" s="236">
         <v>51.6</v>
       </c>
-      <c r="G20" s="239">
+      <c r="G20" s="238">
         <v>54.640529999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="235" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="237">
+      <c r="B21" s="236">
         <v>45</v>
       </c>
-      <c r="C21" s="237">
+      <c r="C21" s="236">
         <v>50.8</v>
       </c>
-      <c r="D21" s="237">
+      <c r="D21" s="236">
         <v>53.3</v>
       </c>
-      <c r="E21" s="237">
+      <c r="E21" s="236">
         <v>47</v>
       </c>
-      <c r="F21" s="237">
+      <c r="F21" s="236">
         <v>46.9</v>
       </c>
-      <c r="G21" s="239">
+      <c r="G21" s="238">
         <v>51.798360000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="236" t="s">
+      <c r="A22" s="235" t="s">
         <v>265</v>
       </c>
-      <c r="B22" s="237">
+      <c r="B22" s="236">
         <v>52.6</v>
       </c>
-      <c r="C22" s="237">
+      <c r="C22" s="236">
         <v>53.3</v>
       </c>
-      <c r="D22" s="237">
+      <c r="D22" s="236">
         <v>61.5</v>
       </c>
-      <c r="E22" s="237">
+      <c r="E22" s="236">
         <v>65.2</v>
       </c>
-      <c r="F22" s="237">
+      <c r="F22" s="236">
         <v>61.5</v>
       </c>
-      <c r="G22" s="239">
+      <c r="G22" s="238">
         <v>60.610300000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="236" t="s">
+      <c r="A23" s="235" t="s">
         <v>266</v>
       </c>
-      <c r="B23" s="237">
+      <c r="B23" s="236">
         <v>38.299999999999997</v>
       </c>
-      <c r="C23" s="237">
+      <c r="C23" s="236">
         <v>50.9</v>
       </c>
-      <c r="D23" s="237">
+      <c r="D23" s="236">
         <v>51.3</v>
       </c>
-      <c r="E23" s="237">
+      <c r="E23" s="236">
         <v>56</v>
       </c>
-      <c r="F23" s="237">
+      <c r="F23" s="236">
         <v>51.3</v>
       </c>
-      <c r="G23" s="239">
+      <c r="G23" s="238">
         <v>59.202689999999997</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="235" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="237">
+      <c r="B24" s="236">
         <v>48.8</v>
       </c>
-      <c r="C24" s="237">
+      <c r="C24" s="236">
         <v>49.5</v>
       </c>
-      <c r="D24" s="237">
+      <c r="D24" s="236">
         <v>45.4</v>
       </c>
-      <c r="E24" s="237">
+      <c r="E24" s="236">
         <v>45.9</v>
       </c>
-      <c r="F24" s="237">
+      <c r="F24" s="236">
         <v>53.4</v>
       </c>
-      <c r="G24" s="239">
+      <c r="G24" s="238">
         <v>54.84639</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="235" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="237">
+      <c r="B25" s="236">
         <v>52.1</v>
       </c>
-      <c r="C25" s="237">
+      <c r="C25" s="236">
         <v>54</v>
       </c>
-      <c r="D25" s="237">
+      <c r="D25" s="236">
         <v>48.7</v>
       </c>
-      <c r="E25" s="237">
+      <c r="E25" s="236">
         <v>45.9</v>
       </c>
-      <c r="F25" s="237">
+      <c r="F25" s="236">
         <v>53.2</v>
       </c>
-      <c r="G25" s="239">
+      <c r="G25" s="238">
         <v>53.993940000000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="235" t="s">
         <v>269</v>
       </c>
-      <c r="B26" s="237">
+      <c r="B26" s="236">
         <v>59.3</v>
       </c>
-      <c r="C26" s="237">
+      <c r="C26" s="236">
         <v>68.7</v>
       </c>
-      <c r="D26" s="237">
+      <c r="D26" s="236">
         <v>60</v>
       </c>
-      <c r="E26" s="237">
+      <c r="E26" s="236">
         <v>60.4</v>
       </c>
-      <c r="F26" s="237">
+      <c r="F26" s="236">
         <v>57.8</v>
       </c>
-      <c r="G26" s="239">
+      <c r="G26" s="238">
         <v>53.242260000000002</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="236" t="s">
+      <c r="A27" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="B27" s="237">
+      <c r="B27" s="236">
         <v>49</v>
       </c>
-      <c r="C27" s="237">
+      <c r="C27" s="236">
         <v>55</v>
       </c>
-      <c r="D27" s="237">
+      <c r="D27" s="236">
         <v>55.7</v>
       </c>
-      <c r="E27" s="237">
+      <c r="E27" s="236">
         <v>61.5</v>
       </c>
-      <c r="F27" s="237">
+      <c r="F27" s="236">
         <v>53.1</v>
       </c>
-      <c r="G27" s="239">
+      <c r="G27" s="238">
         <v>60.02899</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="236" t="s">
+      <c r="A28" s="235" t="s">
         <v>271</v>
       </c>
-      <c r="B28" s="237">
+      <c r="B28" s="236">
         <v>54.4</v>
       </c>
-      <c r="C28" s="237">
+      <c r="C28" s="236">
         <v>54.5</v>
       </c>
-      <c r="D28" s="237">
+      <c r="D28" s="236">
         <v>51.3</v>
       </c>
-      <c r="E28" s="237">
+      <c r="E28" s="236">
         <v>64.099999999999994</v>
       </c>
-      <c r="F28" s="237">
+      <c r="F28" s="236">
         <v>51.1</v>
       </c>
-      <c r="G28" s="239">
+      <c r="G28" s="238">
         <v>49.576419999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="236" t="s">
+      <c r="A29" s="235" t="s">
         <v>272</v>
       </c>
-      <c r="B29" s="237">
+      <c r="B29" s="236">
         <v>53.7</v>
       </c>
-      <c r="C29" s="237">
+      <c r="C29" s="236">
         <v>51.7</v>
       </c>
-      <c r="D29" s="237">
+      <c r="D29" s="236">
         <v>49</v>
       </c>
-      <c r="E29" s="237">
+      <c r="E29" s="236">
         <v>61.1</v>
       </c>
-      <c r="F29" s="237">
+      <c r="F29" s="236">
         <v>53</v>
       </c>
-      <c r="G29" s="239">
+      <c r="G29" s="238">
         <v>52.826720000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="236" t="s">
+      <c r="A30" s="235" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="237">
+      <c r="B30" s="236">
         <v>49.5</v>
       </c>
-      <c r="C30" s="237">
+      <c r="C30" s="236">
         <v>51.4</v>
       </c>
-      <c r="D30" s="237">
+      <c r="D30" s="236">
         <v>49</v>
       </c>
-      <c r="E30" s="237">
+      <c r="E30" s="236">
         <v>48.8</v>
       </c>
-      <c r="F30" s="237">
+      <c r="F30" s="236">
         <v>52.3</v>
       </c>
-      <c r="G30" s="239">
+      <c r="G30" s="238">
         <v>59.11439</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="235" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="237">
+      <c r="B31" s="236">
         <v>57.1</v>
       </c>
-      <c r="C31" s="237">
+      <c r="C31" s="236">
         <v>52.9</v>
       </c>
-      <c r="D31" s="237">
+      <c r="D31" s="236">
         <v>49</v>
       </c>
-      <c r="E31" s="237">
+      <c r="E31" s="236">
         <v>54.5</v>
       </c>
-      <c r="F31" s="237">
+      <c r="F31" s="236">
         <v>53.3</v>
       </c>
-      <c r="G31" s="239">
+      <c r="G31" s="238">
         <v>54.220820000000003</v>
       </c>
     </row>
@@ -36594,7 +36549,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -36605,30 +36560,30 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="258" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="256" t="s">
+      <c r="C2" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256" t="s">
+      <c r="D2" s="258"/>
+      <c r="E2" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="256"/>
-      <c r="G2" s="266" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="266" t="s">
-        <v>513</v>
+      <c r="F2" s="258"/>
+      <c r="G2" s="268" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="268" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="256"/>
-      <c r="B3" s="256"/>
+      <c r="A3" s="258"/>
+      <c r="B3" s="258"/>
       <c r="C3" s="96" t="s">
         <v>45</v>
       </c>
@@ -36641,8 +36596,8 @@
       <c r="F3" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="183" t="s">
@@ -36734,39 +36689,39 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="251" t="s">
+      <c r="A9" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="400" t="s">
+      <c r="C9" s="254" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="400" t="s">
+      <c r="D9" s="254" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="250" t="s">
+      <c r="E9" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="250" t="s">
+      <c r="F9" s="249" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="175" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H9" s="175" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="185" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B10" s="149">
         <v>7963586</v>
@@ -37077,56 +37032,56 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="268"/>
-      <c r="B2" s="269" t="s">
+      <c r="A2" s="270"/>
+      <c r="B2" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="269" t="s">
+      <c r="C2" s="271" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269" t="s">
+      <c r="D2" s="271"/>
+      <c r="E2" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="269"/>
-      <c r="G2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="H2" s="259" t="s">
-        <v>513</v>
+      <c r="F2" s="271"/>
+      <c r="G2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="H2" s="261" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="268"/>
-      <c r="B3" s="269"/>
-      <c r="C3" s="270" t="s">
+      <c r="A3" s="270"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="272" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="272" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="272" t="s">
+      <c r="E3" s="274" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="272" t="s">
+      <c r="F3" s="274" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="259"/>
-      <c r="H3" s="259"/>
+      <c r="G3" s="261"/>
+      <c r="H3" s="261"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="268"/>
-      <c r="B4" s="269"/>
-      <c r="C4" s="271"/>
-      <c r="D4" s="271"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="259"/>
-      <c r="H4" s="259"/>
+      <c r="A4" s="270"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="261"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="185" t="s">
@@ -37597,8 +37552,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="229" t="s">
-        <v>630</v>
+      <c r="B1" s="228" t="s">
+        <v>629</v>
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
@@ -37610,55 +37565,55 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="282" t="s">
+      <c r="B2" s="282"/>
+      <c r="C2" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="282" t="s">
+      <c r="D2" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282" t="s">
+      <c r="E2" s="284"/>
+      <c r="F2" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="282"/>
-      <c r="H2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="I2" s="259" t="s">
-        <v>513</v>
+      <c r="G2" s="284"/>
+      <c r="H2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="261" t="s">
+        <v>512</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="280"/>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282" t="s">
+      <c r="B3" s="282"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="282" t="s">
+      <c r="E3" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="282" t="s">
+      <c r="F3" s="284" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="282" t="s">
+      <c r="G3" s="284" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="281"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="189" t="s">
@@ -37688,13 +37643,13 @@
       <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="229" t="s">
         <v>81</v>
       </c>
       <c r="C6" s="104">
         <v>4437</v>
       </c>
-      <c r="D6" s="231">
+      <c r="D6" s="230">
         <v>2518</v>
       </c>
       <c r="E6" s="104">
@@ -37714,13 +37669,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="230" t="s">
+      <c r="B7" s="229" t="s">
         <v>82</v>
       </c>
       <c r="C7" s="104">
         <v>110655</v>
       </c>
-      <c r="D7" s="231">
+      <c r="D7" s="230">
         <v>51062</v>
       </c>
       <c r="E7" s="104">
@@ -37740,13 +37695,13 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="230" t="s">
+      <c r="B8" s="229" t="s">
         <v>83</v>
       </c>
       <c r="C8" s="104">
         <v>264373</v>
       </c>
-      <c r="D8" s="231">
+      <c r="D8" s="230">
         <v>106087</v>
       </c>
       <c r="E8" s="104">
@@ -37766,13 +37721,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="230" t="s">
+      <c r="B9" s="229" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="104">
         <v>324564</v>
       </c>
-      <c r="D9" s="231">
+      <c r="D9" s="230">
         <v>185964</v>
       </c>
       <c r="E9" s="104">
@@ -37792,13 +37747,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="230" t="s">
+      <c r="B10" s="229" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="104">
         <v>133444</v>
       </c>
-      <c r="D10" s="231">
+      <c r="D10" s="230">
         <v>85126</v>
       </c>
       <c r="E10" s="104">
@@ -37818,13 +37773,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="230" t="s">
+      <c r="B11" s="229" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="104">
         <v>300460</v>
       </c>
-      <c r="D11" s="231">
+      <c r="D11" s="230">
         <v>200090</v>
       </c>
       <c r="E11" s="104">
@@ -37855,7 +37810,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
@@ -37866,54 +37821,54 @@
       <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="277" t="s">
+      <c r="B14" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="274" t="s">
+      <c r="C14" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="282" t="s">
+      <c r="D14" s="284" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="282"/>
-      <c r="F14" s="282" t="s">
+      <c r="E14" s="284"/>
+      <c r="F14" s="284" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="282"/>
-      <c r="H14" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="I14" s="259" t="s">
-        <v>513</v>
+      <c r="G14" s="284"/>
+      <c r="H14" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="I14" s="261" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="278"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="282" t="s">
+      <c r="B15" s="280"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="284" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="282" t="s">
+      <c r="E15" s="284" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="283" t="s">
+      <c r="F15" s="285" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="283" t="s">
+      <c r="G15" s="285" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="259"/>
-      <c r="I15" s="259"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="261"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="279"/>
-      <c r="C16" s="276"/>
-      <c r="D16" s="282"/>
-      <c r="E16" s="282"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="283"/>
-      <c r="H16" s="259"/>
-      <c r="I16" s="259"/>
+      <c r="B16" s="281"/>
+      <c r="C16" s="278"/>
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="285"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="189"/>
@@ -38253,7 +38208,7 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="191" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="192">
         <v>1351</v>
@@ -38461,7 +38416,7 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="191" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C38" s="192">
         <v>4304</v>
@@ -38513,7 +38468,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="191" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C40" s="192">
         <v>507</v>
@@ -38565,7 +38520,7 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="191" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C42" s="192">
         <v>319</v>
@@ -38643,7 +38598,7 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C45" s="192">
         <v>206</v>
@@ -38669,7 +38624,7 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C46" s="192">
         <v>292</v>
@@ -39059,7 +39014,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="191" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C61" s="192">
         <v>273</v>
@@ -39085,7 +39040,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="191" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C62" s="192">
         <v>1894</v>
@@ -39111,7 +39066,7 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="191" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C63" s="192">
         <v>35871</v>
@@ -39214,70 +39169,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="287" t="s">
-        <v>632</v>
-      </c>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
+      <c r="B1" s="289" t="s">
+        <v>631</v>
+      </c>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="291" t="s">
+      <c r="B2" s="293" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="289" t="s">
+      <c r="C2" s="291" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="288" t="s">
+      <c r="D2" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288" t="s">
+      <c r="E2" s="290"/>
+      <c r="F2" s="290" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="288"/>
-      <c r="H2" s="259" t="s">
-        <v>506</v>
-      </c>
-      <c r="I2" s="259" t="s">
-        <v>513</v>
+      <c r="G2" s="290"/>
+      <c r="H2" s="261" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="261" t="s">
+        <v>512</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="291"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="289" t="s">
+      <c r="E3" s="291" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="290" t="s">
+      <c r="F3" s="292" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="290" t="s">
+      <c r="G3" s="292" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="259"/>
-      <c r="I3" s="259"/>
+      <c r="H3" s="261"/>
+      <c r="I3" s="261"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="291"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="290"/>
-      <c r="G4" s="290"/>
-      <c r="H4" s="259"/>
-      <c r="I4" s="259"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="261"/>
+      <c r="I4" s="261"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="193" t="s">
@@ -39293,7 +39248,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="195" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="194"/>
       <c r="D6" s="194"/>
@@ -39364,16 +39319,16 @@
       <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="284" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="285"/>
-      <c r="D12" s="285"/>
-      <c r="E12" s="285"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="285"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="286"/>
+      <c r="B12" s="286" t="s">
+        <v>501</v>
+      </c>
+      <c r="C12" s="287"/>
+      <c r="D12" s="287"/>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="288"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="196" t="s">
@@ -39401,7 +39356,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="196" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C15" s="194"/>
       <c r="D15" s="194"/>
@@ -39472,20 +39427,20 @@
       <c r="I20" s="194"/>
     </row>
     <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="286" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="285"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="285"/>
-      <c r="G21" s="285"/>
-      <c r="H21" s="285"/>
-      <c r="I21" s="286"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="288"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="196" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="194">
         <v>209211</v>
@@ -39511,7 +39466,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="196" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C23" s="194">
         <v>322360</v>
@@ -39537,7 +39492,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="194">
         <v>736</v>
@@ -39563,7 +39518,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="196" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C25" s="194">
         <v>206</v>
@@ -39589,7 +39544,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="196" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C26" s="194">
         <v>5774</v>
@@ -39615,7 +39570,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="196" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C27" s="194">
         <v>8435</v>
@@ -39641,7 +39596,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="196" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C28" s="194">
         <v>75571</v>
@@ -39668,7 +39623,7 @@
     <row r="29" spans="1:9" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="196" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C29" s="194">
         <v>906</v>
@@ -39748,7 +39703,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -39761,62 +39716,62 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="293">
+      <c r="B2" s="295">
         <v>15</v>
       </c>
-      <c r="C2" s="294" t="s">
+      <c r="C2" s="296" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="295" t="s">
+      <c r="D2" s="297" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="292" t="s">
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="292" t="s">
+      <c r="I2" s="294" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="292" t="s">
+      <c r="J2" s="294" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="293"/>
-      <c r="C3" s="294"/>
-      <c r="D3" s="292" t="s">
+      <c r="B3" s="295"/>
+      <c r="C3" s="296"/>
+      <c r="D3" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="292" t="s">
+      <c r="E3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="292" t="s">
+      <c r="F3" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="292" t="s">
+      <c r="G3" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
+      <c r="J3" s="294"/>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="293"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="292"/>
-      <c r="E4" s="292"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="292"/>
-      <c r="I4" s="292"/>
-      <c r="J4" s="292"/>
+      <c r="B4" s="295"/>
+      <c r="C4" s="296"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
+      <c r="J4" s="294"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="166" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C5" s="197">
         <v>7963586</v>
@@ -40059,7 +40014,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C13" s="177">
         <v>3753869</v>
@@ -40305,7 +40260,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C21" s="149">
         <v>4209718</v>
@@ -40532,7 +40487,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="97" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C28" s="149">
         <v>1637017</v>
@@ -40759,7 +40714,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C35" s="149">
         <v>6326569</v>

--- a/RLFS Tables_ Annual_2022.xlsx
+++ b/RLFS Tables_ Annual_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARDX LTD\Desktop\NISR COMPETITION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC22404C-CBEC-42F8-9A84-D1E764FC90C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4BEE5A-D85D-4511-96FA-2280742C392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="871" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="871" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List Of Tables" sheetId="30" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="687">
   <si>
     <t>Professional, scientific and technical activities</t>
   </si>
@@ -1752,9 +1752,6 @@
     <t>Residence area</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
     <t>City of kigali</t>
   </si>
   <si>
@@ -2251,6 +2248,12 @@
   </si>
   <si>
     <t>Total employees/paid apprentices 16 +</t>
+  </si>
+  <si>
+    <t>No Level Completed</t>
+  </si>
+  <si>
+    <t>No Level Conpleted</t>
   </si>
 </sst>
 </file>
@@ -3285,7 +3288,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="400">
+  <cellXfs count="398">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3825,15 +3828,6 @@
     <xf numFmtId="0" fontId="60" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3867,6 +3861,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="5" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3882,15 +3882,6 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3905,6 +3896,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3930,6 +3930,12 @@
     <xf numFmtId="0" fontId="38" fillId="35" borderId="9" xfId="64" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="8" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3953,12 +3959,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="4" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="36" borderId="5" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3984,9 +3984,6 @@
     <xf numFmtId="0" fontId="40" fillId="35" borderId="4" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3995,6 +3992,9 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4125,6 +4125,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4134,20 +4143,11 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4158,8 +4158,8 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4172,6 +4172,15 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="36" borderId="4" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4191,14 +4200,11 @@
     <xf numFmtId="0" fontId="5" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4208,9 +4214,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4227,12 +4230,6 @@
     <xf numFmtId="0" fontId="2" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4248,14 +4245,14 @@
     <xf numFmtId="167" fontId="21" fillId="0" borderId="9" xfId="28" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4272,20 +4269,17 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="38" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -4294,6 +4288,9 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="38" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4692,10 +4689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="254" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="255"/>
+      <c r="B1" s="254"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="38"/>
@@ -5136,7 +5133,7 @@
         <v>39</v>
       </c>
       <c r="B49" s="26" t="str">
-        <f>'Table 38-39'!A13</f>
+        <f>'Table 38-39'!A10</f>
         <v>Table 39. Unemployed population by sex, level of educational, and urban/rural area, RLFS 2022</v>
       </c>
     </row>
@@ -5388,8 +5385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5402,7 +5399,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -5420,32 +5417,32 @@
       <c r="B2" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="242" t="s">
+      <c r="D2" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="242" t="s">
+      <c r="E2" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="243" t="s">
+      <c r="F2" s="252" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="244" t="s">
+      <c r="G2" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="244" t="s">
+      <c r="H2" s="241" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="244" t="s">
+      <c r="I2" s="241" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B3" s="197">
         <v>7963586</v>
@@ -5476,9 +5473,9 @@
         <v>20.544100144825709</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="211" t="s">
-        <v>179</v>
+        <v>686</v>
       </c>
       <c r="B4" s="104">
         <v>3581239</v>
@@ -5643,7 +5640,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -5655,61 +5652,61 @@
       <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="300">
+      <c r="A10" s="299">
         <v>15</v>
       </c>
-      <c r="B10" s="294" t="s">
+      <c r="B10" s="296" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="303" t="s">
+      <c r="C10" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="294" t="s">
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="294" t="s">
+      <c r="H10" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="294" t="s">
+      <c r="I10" s="296" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="301"/>
-      <c r="B11" s="294"/>
-      <c r="C11" s="298" t="s">
+      <c r="A11" s="300"/>
+      <c r="B11" s="296"/>
+      <c r="C11" s="297" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="298" t="s">
+      <c r="D11" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="298" t="s">
+      <c r="E11" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="298" t="s">
+      <c r="F11" s="297" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="294"/>
-      <c r="H11" s="294"/>
-      <c r="I11" s="294"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="296"/>
+      <c r="I11" s="296"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="302"/>
-      <c r="B12" s="294"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="294"/>
-      <c r="H12" s="294"/>
-      <c r="I12" s="294"/>
+      <c r="A12" s="301"/>
+      <c r="B12" s="296"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="102" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B13" s="197">
         <v>7963586</v>
@@ -5978,56 +5975,56 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="305"/>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="261" t="s">
+      <c r="G2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="265" t="s">
         <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="306"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="A3" s="305"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="306"/>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="267"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
+      <c r="A4" s="305"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
@@ -6417,26 +6414,26 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
-        <v>683</v>
-      </c>
-      <c r="B22" s="245" t="s">
+        <v>682</v>
+      </c>
+      <c r="B22" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="245" t="s">
+      <c r="C22" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="245" t="s">
+      <c r="D22" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="245" t="s">
+      <c r="E22" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="245" t="s">
+      <c r="F22" s="242" t="s">
         <v>47</v>
       </c>
       <c r="G22" s="175" t="s">
@@ -6772,7 +6769,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -6783,52 +6780,52 @@
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="309"/>
-      <c r="B2" s="310" t="s">
+      <c r="A2" s="308"/>
+      <c r="B2" s="309" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="310" t="s">
+      <c r="C2" s="309" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="310" t="s">
+      <c r="D2" s="309" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="310" t="s">
+      <c r="E2" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="310" t="s">
+      <c r="F2" s="309" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="261" t="s">
+      <c r="G2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="265" t="s">
         <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="309"/>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="A3" s="308"/>
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="309"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
+      <c r="A4" s="308"/>
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309"/>
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -6930,7 +6927,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -6941,48 +6938,48 @@
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="307"/>
-      <c r="B11" s="308" t="s">
+      <c r="A11" s="306"/>
+      <c r="B11" s="307" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="308" t="s">
+      <c r="C11" s="307" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="308" t="s">
+      <c r="D11" s="307" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="308" t="s">
+      <c r="E11" s="307" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="308" t="s">
+      <c r="F11" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="261" t="s">
+      <c r="G11" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H11" s="261" t="s">
+      <c r="H11" s="265" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="307"/>
-      <c r="B12" s="308"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="261"/>
+      <c r="A12" s="306"/>
+      <c r="B12" s="307"/>
+      <c r="C12" s="307"/>
+      <c r="D12" s="307"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="265"/>
+      <c r="H12" s="265"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="307"/>
-      <c r="B13" s="308"/>
-      <c r="C13" s="308"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="308"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
+      <c r="A13" s="306"/>
+      <c r="B13" s="307"/>
+      <c r="C13" s="307"/>
+      <c r="D13" s="307"/>
+      <c r="E13" s="307"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="265"/>
+      <c r="H13" s="265"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
@@ -7285,30 +7282,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="305" t="s">
         <v>490</v>
       </c>
-      <c r="B2" s="261" t="s">
+      <c r="B2" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="310" t="s">
         <v>511</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
     </row>
     <row r="3" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="306"/>
-      <c r="B3" s="261"/>
+      <c r="A3" s="305"/>
+      <c r="B3" s="265"/>
       <c r="C3" s="175" t="s">
         <v>117</v>
       </c>
@@ -7581,13 +7578,13 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="312"/>
-      <c r="B15" s="313"/>
-      <c r="C15" s="313"/>
-      <c r="D15" s="313"/>
-      <c r="E15" s="313"/>
-      <c r="F15" s="313"/>
-      <c r="G15" s="314"/>
+      <c r="A15" s="311"/>
+      <c r="B15" s="312"/>
+      <c r="C15" s="312"/>
+      <c r="D15" s="312"/>
+      <c r="E15" s="312"/>
+      <c r="F15" s="312"/>
+      <c r="G15" s="313"/>
       <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7841,13 +7838,13 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="312"/>
-      <c r="B27" s="313"/>
-      <c r="C27" s="313"/>
-      <c r="D27" s="313"/>
-      <c r="E27" s="313"/>
-      <c r="F27" s="313"/>
-      <c r="G27" s="314"/>
+      <c r="A27" s="311"/>
+      <c r="B27" s="312"/>
+      <c r="C27" s="312"/>
+      <c r="D27" s="312"/>
+      <c r="E27" s="312"/>
+      <c r="F27" s="312"/>
+      <c r="G27" s="313"/>
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8236,56 +8233,56 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="315"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="314"/>
+      <c r="B2" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="311" t="s">
+      <c r="D2" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="311" t="s">
+      <c r="E2" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="311" t="s">
+      <c r="F2" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="261" t="s">
+      <c r="G2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="265" t="s">
         <v>512</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="315"/>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="A3" s="314"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="315"/>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
+      <c r="A4" s="314"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -8914,7 +8911,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -8968,13 +8965,13 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="316"/>
-      <c r="B4" s="317"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="317"/>
-      <c r="E4" s="317"/>
-      <c r="F4" s="317"/>
-      <c r="G4" s="318"/>
+      <c r="A4" s="315"/>
+      <c r="B4" s="316"/>
+      <c r="C4" s="316"/>
+      <c r="D4" s="316"/>
+      <c r="E4" s="316"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="317"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
@@ -9502,13 +9499,13 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="319"/>
-      <c r="B26" s="320"/>
-      <c r="C26" s="320"/>
-      <c r="D26" s="320"/>
-      <c r="E26" s="320"/>
-      <c r="F26" s="320"/>
-      <c r="G26" s="321"/>
+      <c r="A26" s="318"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="320"/>
       <c r="H26" s="13"/>
       <c r="I26" s="2"/>
     </row>
@@ -10883,8 +10880,8 @@
   </sheetPr>
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10900,56 +10897,56 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="325"/>
-      <c r="B2" s="311" t="s">
+      <c r="A2" s="324"/>
+      <c r="B2" s="310" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="311" t="s">
+      <c r="C2" s="310" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311" t="s">
+      <c r="D2" s="310"/>
+      <c r="E2" s="310" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="311"/>
-      <c r="G2" s="261" t="s">
+      <c r="F2" s="310"/>
+      <c r="G2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="265" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="325"/>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311" t="s">
+      <c r="A3" s="324"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="311" t="s">
+      <c r="D3" s="310" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="311" t="s">
+      <c r="E3" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="311" t="s">
+      <c r="F3" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="325"/>
-      <c r="B4" s="311"/>
-      <c r="C4" s="311"/>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
+      <c r="A4" s="324"/>
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -10978,14 +10975,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="322"/>
-      <c r="B6" s="323"/>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="324"/>
+      <c r="A6" s="321"/>
+      <c r="B6" s="322"/>
+      <c r="C6" s="322"/>
+      <c r="D6" s="322"/>
+      <c r="E6" s="322"/>
+      <c r="F6" s="322"/>
+      <c r="G6" s="322"/>
+      <c r="H6" s="323"/>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
@@ -11131,7 +11128,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -11144,25 +11141,25 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="311"/>
-      <c r="B14" s="311" t="s">
+      <c r="A14" s="310"/>
+      <c r="B14" s="310" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="311"/>
-      <c r="D14" s="311"/>
-      <c r="E14" s="311" t="s">
+      <c r="C14" s="310"/>
+      <c r="D14" s="310"/>
+      <c r="E14" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="311"/>
-      <c r="G14" s="311"/>
-      <c r="H14" s="311" t="s">
+      <c r="F14" s="310"/>
+      <c r="G14" s="310"/>
+      <c r="H14" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="311"/>
-      <c r="J14" s="311"/>
+      <c r="I14" s="310"/>
+      <c r="J14" s="310"/>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="311"/>
+      <c r="A15" s="310"/>
       <c r="B15" s="103" t="s">
         <v>9</v>
       </c>
@@ -11474,7 +11471,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -11485,22 +11482,22 @@
       <c r="H26"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="252" t="s">
-        <v>684</v>
-      </c>
-      <c r="B27" s="253" t="s">
+      <c r="A27" s="249" t="s">
+        <v>683</v>
+      </c>
+      <c r="B27" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="253" t="s">
+      <c r="C27" s="250" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="253" t="s">
+      <c r="D27" s="250" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="253" t="s">
+      <c r="E27" s="250" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="253" t="s">
+      <c r="F27" s="250" t="s">
         <v>47</v>
       </c>
       <c r="G27" s="175" t="s">
@@ -11512,7 +11509,7 @@
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="164" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B28" s="117">
         <v>2570193</v>
@@ -11898,60 +11895,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="326" t="s">
-        <v>645</v>
-      </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
+      <c r="A1" s="325" t="s">
+        <v>644</v>
+      </c>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="327"/>
-      <c r="B2" s="330" t="s">
+      <c r="A2" s="326"/>
+      <c r="B2" s="329" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="330" t="s">
+      <c r="C2" s="329" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="330" t="s">
+      <c r="D2" s="329" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="330" t="s">
+      <c r="E2" s="329" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="330" t="s">
+      <c r="F2" s="329" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="255" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="257" t="s">
+      <c r="H2" s="256" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="328"/>
-      <c r="B3" s="331"/>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="257"/>
+      <c r="A3" s="327"/>
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="329"/>
-      <c r="B4" s="332"/>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="257"/>
+      <c r="A4" s="328"/>
+      <c r="B4" s="331"/>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="164" t="s">
@@ -12752,32 +12749,32 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="333" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="333" t="s">
+      <c r="B2" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333" t="s">
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="332" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333" t="s">
+      <c r="F2" s="332"/>
+      <c r="G2" s="332" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="333"/>
+      <c r="H2" s="332"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
       <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="335"/>
+      <c r="A3" s="334"/>
       <c r="B3" s="169" t="s">
         <v>9</v>
       </c>
@@ -13508,43 +13505,43 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="336"/>
-      <c r="B2" s="339" t="s">
+      <c r="A2" s="335"/>
+      <c r="B2" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339" t="s">
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339" t="s">
+      <c r="F2" s="338"/>
+      <c r="G2" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="339"/>
+      <c r="H2" s="338"/>
     </row>
     <row r="3" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="337"/>
-      <c r="B3" s="339" t="s">
+      <c r="A3" s="336"/>
+      <c r="B3" s="338" t="s">
         <v>336</v>
       </c>
-      <c r="C3" s="339"/>
-      <c r="D3" s="339"/>
-      <c r="E3" s="339" t="s">
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="339"/>
-      <c r="G3" s="339" t="s">
+      <c r="F3" s="338"/>
+      <c r="G3" s="338" t="s">
         <v>336</v>
       </c>
-      <c r="H3" s="339"/>
+      <c r="H3" s="338"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="338"/>
+      <c r="A4" s="337"/>
       <c r="B4" s="231" t="s">
         <v>9</v>
       </c>
@@ -14101,7 +14098,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B26" s="113">
         <v>8517</v>
@@ -14315,52 +14312,52 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="259" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="258" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="258" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="259" t="s">
+      <c r="D2" s="258" t="s">
         <v>308</v>
       </c>
-      <c r="E2" s="259" t="s">
+      <c r="E2" s="258" t="s">
         <v>309</v>
       </c>
-      <c r="F2" s="259" t="s">
+      <c r="F2" s="258" t="s">
         <v>310</v>
       </c>
-      <c r="G2" s="256" t="s">
+      <c r="G2" s="255" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="257" t="s">
+      <c r="H2" s="256" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="259"/>
-      <c r="C3" s="259"/>
-      <c r="D3" s="259"/>
-      <c r="E3" s="259"/>
-      <c r="F3" s="259"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="257"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="258"/>
+      <c r="C3" s="258"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="258"/>
-      <c r="B4" s="259"/>
-      <c r="C4" s="259"/>
-      <c r="D4" s="259"/>
-      <c r="E4" s="259"/>
-      <c r="F4" s="259"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="257"/>
+      <c r="A4" s="257"/>
+      <c r="B4" s="258"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="258"/>
+      <c r="E4" s="258"/>
+      <c r="F4" s="258"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
@@ -14940,25 +14937,25 @@
         <v>464</v>
       </c>
       <c r="B26" s="172" t="s">
+        <v>568</v>
+      </c>
+      <c r="C26" s="172" t="s">
+        <v>568</v>
+      </c>
+      <c r="D26" s="172" t="s">
         <v>569</v>
       </c>
-      <c r="C26" s="172" t="s">
+      <c r="E26" s="172" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="172" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="172" t="s">
         <v>569</v>
       </c>
-      <c r="D26" s="172" t="s">
-        <v>570</v>
-      </c>
-      <c r="E26" s="172" t="s">
-        <v>588</v>
-      </c>
-      <c r="F26" s="172" t="s">
-        <v>569</v>
-      </c>
-      <c r="G26" s="172" t="s">
-        <v>570</v>
-      </c>
       <c r="H26" s="172" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -15013,31 +15010,31 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="306"/>
-      <c r="B2" s="258" t="s">
+      <c r="A2" s="305"/>
+      <c r="B2" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258" t="s">
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="257"/>
+      <c r="H2" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
+      <c r="I2" s="257"/>
+      <c r="J2" s="257"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="306"/>
+      <c r="A3" s="305"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -16061,7 +16058,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16073,7 +16070,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -16094,25 +16091,25 @@
       <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="310" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311" t="s">
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311" t="s">
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="103" t="s">
         <v>123</v>
       </c>
@@ -17001,60 +16998,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="s">
-        <v>650</v>
-      </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
+      <c r="A1" s="339" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
       <c r="M1" s="57"/>
       <c r="N1" s="57"/>
       <c r="O1" s="57"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="340"/>
-      <c r="B2" s="340"/>
-      <c r="C2" s="340"/>
-      <c r="D2" s="340"/>
-      <c r="E2" s="340"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340"/>
+      <c r="A2" s="339"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339"/>
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
       <c r="M2" s="57"/>
       <c r="N2" s="57"/>
       <c r="O2" s="57"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="310" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311" t="s">
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311" t="s">
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
       <c r="M3" s="57"/>
       <c r="N3" s="57"/>
       <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
+      <c r="A4" s="310"/>
       <c r="B4" s="103" t="s">
         <v>123</v>
       </c>
@@ -17091,31 +17088,31 @@
         <v>157</v>
       </c>
       <c r="B5" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="E5" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>589</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="I5" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J5" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="D5" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5" s="113" t="s">
-        <v>588</v>
-      </c>
-      <c r="F5" s="113" t="s">
-        <v>589</v>
-      </c>
-      <c r="G5" s="113" t="s">
-        <v>590</v>
-      </c>
-      <c r="H5" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="I5" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J5" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="K5" s="57"/>
       <c r="M5" s="57"/>
@@ -17144,31 +17141,31 @@
         <v>241</v>
       </c>
       <c r="B7" s="113" t="s">
+        <v>569</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D7" s="113" t="s">
         <v>570</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="E7" s="113" t="s">
+        <v>570</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>590</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>570</v>
+      </c>
+      <c r="H7" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="F7" s="113" t="s">
-        <v>591</v>
-      </c>
-      <c r="G7" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="H7" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="I7" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J7" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="J7" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
@@ -17179,31 +17176,31 @@
         <v>242</v>
       </c>
       <c r="B8" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>571</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>591</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>592</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J8" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>572</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>592</v>
-      </c>
-      <c r="F8" s="113" t="s">
-        <v>593</v>
-      </c>
-      <c r="G8" s="113" t="s">
-        <v>575</v>
-      </c>
-      <c r="H8" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="I8" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J8" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -17214,31 +17211,31 @@
         <v>243</v>
       </c>
       <c r="B9" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>593</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>594</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J9" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="C9" s="113" t="s">
-        <v>573</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>594</v>
-      </c>
-      <c r="F9" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="G9" s="113" t="s">
-        <v>595</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="I9" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J9" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -17249,31 +17246,31 @@
         <v>244</v>
       </c>
       <c r="B10" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="E10" s="113" t="s">
+        <v>586</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>595</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="H10" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D10" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>587</v>
-      </c>
-      <c r="F10" s="113" t="s">
-        <v>596</v>
-      </c>
-      <c r="G10" s="113" t="s">
+      <c r="I10" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J10" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="H10" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J10" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -17284,31 +17281,31 @@
         <v>333</v>
       </c>
       <c r="B11" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C11" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="113" t="s">
+        <v>573</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>596</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>587</v>
+      </c>
+      <c r="G11" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D11" s="113" t="s">
-        <v>574</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>597</v>
-      </c>
-      <c r="F11" s="113" t="s">
-        <v>588</v>
-      </c>
-      <c r="G11" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="H11" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I11" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J11" s="113" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -17333,31 +17330,31 @@
         <v>117</v>
       </c>
       <c r="B13" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C13" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D13" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D13" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="E13" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>585</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="H13" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="F13" s="113" t="s">
-        <v>586</v>
-      </c>
-      <c r="G13" s="113" t="s">
+      <c r="I13" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J13" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="H13" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="I13" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J13" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -17368,31 +17365,31 @@
         <v>77</v>
       </c>
       <c r="B14" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="C14" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="E14" s="113" t="s">
+        <v>597</v>
+      </c>
+      <c r="F14" s="113" t="s">
+        <v>578</v>
+      </c>
+      <c r="G14" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D14" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" s="113" t="s">
-        <v>579</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="H14" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="I14" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J14" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="I14" s="113" t="s">
-        <v>569</v>
-      </c>
-      <c r="J14" s="113" t="s">
-        <v>570</v>
       </c>
       <c r="M14" t="s">
         <v>351</v>
@@ -17403,31 +17400,31 @@
         <v>311</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C15" s="113" t="s">
+        <v>574</v>
+      </c>
+      <c r="D15" s="113" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="113" t="s">
-        <v>576</v>
-      </c>
       <c r="E15" s="113" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F15" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G15" s="113" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H15" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>571</v>
+      </c>
+      <c r="J15" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="I15" s="113" t="s">
-        <v>572</v>
-      </c>
-      <c r="J15" s="113" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -17435,31 +17432,31 @@
         <v>78</v>
       </c>
       <c r="B16" s="113" t="s">
+        <v>576</v>
+      </c>
+      <c r="C16" s="113" t="s">
         <v>577</v>
       </c>
-      <c r="C16" s="113" t="s">
+      <c r="D16" s="113" t="s">
         <v>578</v>
       </c>
-      <c r="D16" s="113" t="s">
-        <v>579</v>
-      </c>
       <c r="E16" s="113" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F16" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G16" s="113" t="s">
+        <v>577</v>
+      </c>
+      <c r="H16" s="113" t="s">
         <v>578</v>
       </c>
-      <c r="H16" s="113" t="s">
-        <v>579</v>
-      </c>
       <c r="I16" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J16" s="113" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -17467,31 +17464,31 @@
         <v>312</v>
       </c>
       <c r="B17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H17" s="113" t="s">
+        <v>606</v>
+      </c>
+      <c r="I17" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="I17" s="113" t="s">
-        <v>608</v>
-      </c>
       <c r="J17" s="113" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17513,31 +17510,31 @@
         <v>62</v>
       </c>
       <c r="B19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E19" s="113" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="F19" s="113" t="s">
-        <v>602</v>
-      </c>
       <c r="G19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I19" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -17545,31 +17542,31 @@
         <v>63</v>
       </c>
       <c r="B20" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="C20" s="113" t="s">
         <v>581</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="D20" s="113" t="s">
         <v>582</v>
       </c>
-      <c r="D20" s="113" t="s">
-        <v>583</v>
-      </c>
       <c r="E20" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F20" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G20" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H20" s="113" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I20" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J20" s="113" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -17577,31 +17574,31 @@
         <v>64</v>
       </c>
       <c r="B21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="C21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="D21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="E21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="F21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="H21" s="113" t="s">
         <v>580</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="I21" s="113" t="s">
+        <v>610</v>
+      </c>
+      <c r="J21" s="113" t="s">
         <v>580</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="E21" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="F21" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="H21" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="I21" s="113" t="s">
-        <v>611</v>
-      </c>
-      <c r="J21" s="113" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -17609,31 +17606,31 @@
         <v>65</v>
       </c>
       <c r="B22" s="113" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C22" s="113" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E22" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="F22" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="G22" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>611</v>
+      </c>
+      <c r="I22" s="113" t="s">
         <v>580</v>
       </c>
-      <c r="F22" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="H22" s="113" t="s">
-        <v>612</v>
-      </c>
-      <c r="I22" s="113" t="s">
-        <v>581</v>
-      </c>
       <c r="J22" s="113" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -17641,31 +17638,31 @@
         <v>49</v>
       </c>
       <c r="B23" s="113" t="s">
+        <v>584</v>
+      </c>
+      <c r="C23" s="113" t="s">
         <v>585</v>
       </c>
-      <c r="C23" s="113" t="s">
-        <v>586</v>
-      </c>
       <c r="D23" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E23" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F23" s="113" t="s">
+        <v>602</v>
+      </c>
+      <c r="G23" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="G23" s="113" t="s">
-        <v>604</v>
-      </c>
       <c r="H23" s="113" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I23" s="113" t="s">
+        <v>612</v>
+      </c>
+      <c r="J23" s="113" t="s">
         <v>613</v>
-      </c>
-      <c r="J23" s="113" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -17673,31 +17670,31 @@
         <v>50</v>
       </c>
       <c r="B24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E24" s="113" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F24" s="113" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G24" s="113" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J24" s="113" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -17705,31 +17702,31 @@
         <v>67</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D25" s="113" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E25" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F25" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G25" s="113" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H25" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I25" s="113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -17737,31 +17734,31 @@
         <v>68</v>
       </c>
       <c r="B26" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C26" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D26" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="E26" s="113" t="s">
         <v>580</v>
       </c>
-      <c r="E26" s="113" t="s">
-        <v>581</v>
-      </c>
       <c r="F26" s="113" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G26" s="113" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H26" s="113">
         <v>100000</v>
       </c>
       <c r="I26" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -17769,31 +17766,31 @@
         <v>66</v>
       </c>
       <c r="B27" s="113" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C27" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="D27" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="D27" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="E27" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="F27" s="113" t="s">
+        <v>596</v>
+      </c>
+      <c r="G27" s="113" t="s">
+        <v>575</v>
+      </c>
+      <c r="H27" s="113" t="s">
         <v>569</v>
       </c>
-      <c r="F27" s="113" t="s">
-        <v>597</v>
-      </c>
-      <c r="G27" s="113" t="s">
-        <v>576</v>
-      </c>
-      <c r="H27" s="113" t="s">
-        <v>570</v>
-      </c>
       <c r="I27" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="J27" s="113" t="s">
         <v>569</v>
-      </c>
-      <c r="J27" s="113" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17842,53 +17839,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="348" t="s">
-        <v>651</v>
-      </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
+      <c r="A1" s="340" t="s">
+        <v>650</v>
+      </c>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="348"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
-      <c r="I2" s="348"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
+      <c r="I2" s="340"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="259"/>
+      <c r="A3" s="258"/>
       <c r="B3" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="352" t="s">
+      <c r="C3" s="341" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352" t="s">
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="352"/>
-      <c r="H3" s="352"/>
-      <c r="I3" s="352" t="s">
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="352"/>
-      <c r="K3" s="352"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="259"/>
-      <c r="B4" s="349"/>
+      <c r="A4" s="258"/>
+      <c r="B4" s="348"/>
       <c r="C4" s="346" t="s">
         <v>9</v>
       </c>
@@ -17918,7 +17915,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="259"/>
+      <c r="A5" s="258"/>
       <c r="B5" s="347"/>
       <c r="C5" s="347"/>
       <c r="D5" s="347"/>
@@ -17966,17 +17963,17 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="322"/>
-      <c r="B7" s="323"/>
-      <c r="C7" s="323"/>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="324"/>
+      <c r="A7" s="321"/>
+      <c r="B7" s="322"/>
+      <c r="C7" s="322"/>
+      <c r="D7" s="322"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="322"/>
+      <c r="G7" s="322"/>
+      <c r="H7" s="322"/>
+      <c r="I7" s="322"/>
+      <c r="J7" s="322"/>
+      <c r="K7" s="323"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
@@ -18202,54 +18199,54 @@
       <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="348" t="s">
-        <v>652</v>
-      </c>
-      <c r="B15" s="348"/>
-      <c r="C15" s="348"/>
-      <c r="D15" s="348"/>
-      <c r="E15" s="348"/>
-      <c r="F15" s="348"/>
-      <c r="G15" s="348"/>
-      <c r="H15" s="348"/>
-      <c r="I15" s="348"/>
+      <c r="A15" s="340" t="s">
+        <v>651</v>
+      </c>
+      <c r="B15" s="340"/>
+      <c r="C15" s="340"/>
+      <c r="D15" s="340"/>
+      <c r="E15" s="340"/>
+      <c r="F15" s="340"/>
+      <c r="G15" s="340"/>
+      <c r="H15" s="340"/>
+      <c r="I15" s="340"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="348"/>
-      <c r="B16" s="348"/>
-      <c r="C16" s="348"/>
-      <c r="D16" s="348"/>
-      <c r="E16" s="348"/>
-      <c r="F16" s="348"/>
-      <c r="G16" s="348"/>
-      <c r="H16" s="348"/>
-      <c r="I16" s="348"/>
+      <c r="A16" s="340"/>
+      <c r="B16" s="340"/>
+      <c r="C16" s="340"/>
+      <c r="D16" s="340"/>
+      <c r="E16" s="340"/>
+      <c r="F16" s="340"/>
+      <c r="G16" s="340"/>
+      <c r="H16" s="340"/>
+      <c r="I16" s="340"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="350" t="s">
+      <c r="A17" s="349" t="s">
         <v>378</v>
       </c>
       <c r="B17" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="341" t="s">
+      <c r="C17" s="343" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="342"/>
-      <c r="E17" s="343"/>
-      <c r="F17" s="341" t="s">
+      <c r="D17" s="344"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="343" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="342"/>
-      <c r="H17" s="343"/>
-      <c r="I17" s="341" t="s">
+      <c r="G17" s="344"/>
+      <c r="H17" s="345"/>
+      <c r="I17" s="343" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="342"/>
-      <c r="K17" s="343"/>
+      <c r="J17" s="344"/>
+      <c r="K17" s="345"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="351"/>
+      <c r="A18" s="350"/>
       <c r="B18" s="347"/>
       <c r="C18" s="116" t="s">
         <v>9</v>
@@ -18287,31 +18284,31 @@
         <v>2561080</v>
       </c>
       <c r="C19" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="D19" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="E19" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="F19" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>588</v>
+      </c>
+      <c r="H19" s="99" t="s">
+        <v>589</v>
+      </c>
+      <c r="I19" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="J19" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="K19" s="99" t="s">
         <v>569</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>570</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>588</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>589</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>590</v>
-      </c>
-      <c r="I19" s="99" t="s">
-        <v>569</v>
-      </c>
-      <c r="J19" s="99" t="s">
-        <v>569</v>
-      </c>
-      <c r="K19" s="99" t="s">
-        <v>570</v>
       </c>
       <c r="N19" s="57"/>
       <c r="O19" s="57"/>
@@ -18325,31 +18322,31 @@
         <v>711954</v>
       </c>
       <c r="C20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F20" s="99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G20" s="99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H20" s="99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K20" s="99" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N20" s="57"/>
       <c r="O20" s="57"/>
@@ -18363,31 +18360,31 @@
         <v>876027</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F21" s="99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G21" s="99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H21" s="99" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K21" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N21" s="57"/>
       <c r="P21" s="57"/>
@@ -18401,31 +18398,31 @@
         <v>121278</v>
       </c>
       <c r="C22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F22" s="99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G22" s="99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H22" s="99" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K22" s="99" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -18436,31 +18433,31 @@
         <v>465923</v>
       </c>
       <c r="C23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G23" s="99" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J23" s="99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K23" s="99" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
@@ -18474,66 +18471,66 @@
         <v>385898</v>
       </c>
       <c r="C24" s="99" t="s">
+        <v>615</v>
+      </c>
+      <c r="D24" s="99" t="s">
+        <v>595</v>
+      </c>
+      <c r="E24" s="99" t="s">
         <v>616</v>
       </c>
-      <c r="D24" s="99" t="s">
-        <v>596</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>617</v>
-      </c>
       <c r="F24" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="I24" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="G24" s="99" t="s">
+      <c r="J24" s="99" t="s">
         <v>580</v>
       </c>
-      <c r="H24" s="99" t="s">
-        <v>580</v>
-      </c>
-      <c r="I24" s="99" t="s">
-        <v>581</v>
-      </c>
-      <c r="J24" s="99" t="s">
-        <v>581</v>
-      </c>
       <c r="K24" s="99" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O24" s="57"/>
       <c r="Q24" s="57"/>
       <c r="R24" s="57"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="344" t="s">
+      <c r="A25" s="351" t="s">
         <v>379</v>
       </c>
-      <c r="B25" s="344" t="s">
+      <c r="B25" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="345" t="s">
+      <c r="C25" s="342" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="345"/>
-      <c r="E25" s="345"/>
-      <c r="F25" s="345" t="s">
+      <c r="D25" s="342"/>
+      <c r="E25" s="342"/>
+      <c r="F25" s="342" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="345"/>
-      <c r="H25" s="345"/>
-      <c r="I25" s="345" t="s">
+      <c r="G25" s="342"/>
+      <c r="H25" s="342"/>
+      <c r="I25" s="342" t="s">
         <v>47</v>
       </c>
-      <c r="J25" s="345"/>
-      <c r="K25" s="345"/>
+      <c r="J25" s="342"/>
+      <c r="K25" s="342"/>
       <c r="O25" s="57"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="57"/>
       <c r="R25" s="57"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="344"/>
-      <c r="B26" s="344"/>
+      <c r="A26" s="351"/>
+      <c r="B26" s="351"/>
       <c r="C26" s="121" t="s">
         <v>9</v>
       </c>
@@ -18786,11 +18783,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="E4:E5"/>
@@ -18807,12 +18805,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -18838,7 +18835,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -18850,40 +18847,40 @@
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="355"/>
-      <c r="B2" s="356" t="s">
+      <c r="A2" s="354"/>
+      <c r="B2" s="355" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="356" t="s">
+      <c r="C2" s="355" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356" t="s">
+      <c r="D2" s="355"/>
+      <c r="E2" s="355"/>
+      <c r="F2" s="355" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="356"/>
-      <c r="H2" s="353" t="s">
+      <c r="G2" s="355"/>
+      <c r="H2" s="352" t="s">
+        <v>536</v>
+      </c>
+      <c r="I2" s="352" t="s">
         <v>537</v>
       </c>
-      <c r="I2" s="353" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="355"/>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="353"/>
-      <c r="I3" s="353"/>
+      <c r="A3" s="354"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="352"/>
+      <c r="I3" s="352"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="355"/>
-      <c r="B4" s="356"/>
+      <c r="A4" s="354"/>
+      <c r="B4" s="355"/>
       <c r="C4" s="122" t="s">
         <v>9</v>
       </c>
@@ -18899,8 +18896,8 @@
       <c r="G4" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="353"/>
-      <c r="I4" s="353"/>
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="124" t="s">
@@ -18943,7 +18940,7 @@
       <c r="I6" s="127"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="354" t="s">
+      <c r="A7" s="353" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="128" t="s">
@@ -18975,7 +18972,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="354"/>
+      <c r="A8" s="353"/>
       <c r="B8" s="128" t="s">
         <v>517</v>
       </c>
@@ -19004,7 +19001,7 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="354" t="s">
+      <c r="A9" s="353" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="128" t="s">
@@ -19033,7 +19030,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="354"/>
+      <c r="A10" s="353"/>
       <c r="B10" s="128" t="s">
         <v>517</v>
       </c>
@@ -19061,7 +19058,7 @@
       <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="354" t="s">
+      <c r="A11" s="353" t="s">
         <v>120</v>
       </c>
       <c r="B11" s="128" t="s">
@@ -19090,7 +19087,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="354"/>
+      <c r="A12" s="353"/>
       <c r="B12" s="128" t="s">
         <v>517</v>
       </c>
@@ -19264,70 +19261,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="363" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" s="363"/>
-      <c r="C1" s="363"/>
-      <c r="D1" s="363"/>
-      <c r="E1" s="363"/>
-      <c r="F1" s="363"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="363"/>
-      <c r="I1" s="363"/>
+      <c r="A1" s="356" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="356"/>
+      <c r="C1" s="356"/>
+      <c r="D1" s="356"/>
+      <c r="E1" s="356"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="356"/>
+      <c r="H1" s="356"/>
+      <c r="I1" s="356"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="365">
+      <c r="A2" s="358">
         <v>15</v>
       </c>
-      <c r="B2" s="296" t="s">
+      <c r="B2" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="364" t="s">
+      <c r="C2" s="357" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="364"/>
-      <c r="E2" s="364"/>
-      <c r="F2" s="364"/>
-      <c r="G2" s="296" t="s">
+      <c r="D2" s="357"/>
+      <c r="E2" s="357"/>
+      <c r="F2" s="357"/>
+      <c r="G2" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="296" t="s">
+      <c r="H2" s="294" t="s">
         <v>376</v>
       </c>
-      <c r="I2" s="296" t="s">
+      <c r="I2" s="294" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="365"/>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296" t="s">
+      <c r="A3" s="358"/>
+      <c r="B3" s="294"/>
+      <c r="C3" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="296" t="s">
+      <c r="D3" s="294" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="296" t="s">
+      <c r="E3" s="294" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="296" t="s">
+      <c r="F3" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="294"/>
+      <c r="I3" s="294"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="365"/>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="296"/>
-      <c r="G4" s="296"/>
-      <c r="H4" s="296"/>
-      <c r="I4" s="296"/>
+      <c r="A4" s="358"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="294"/>
+      <c r="D4" s="294"/>
+      <c r="E4" s="294"/>
+      <c r="F4" s="294"/>
+      <c r="G4" s="294"/>
+      <c r="H4" s="294"/>
+      <c r="I4" s="294"/>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -19364,15 +19361,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="357"/>
-      <c r="B6" s="358"/>
-      <c r="C6" s="358"/>
-      <c r="D6" s="358"/>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="358"/>
-      <c r="I6" s="359"/>
+      <c r="A6" s="359"/>
+      <c r="B6" s="360"/>
+      <c r="C6" s="360"/>
+      <c r="D6" s="360"/>
+      <c r="E6" s="360"/>
+      <c r="F6" s="360"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="360"/>
+      <c r="I6" s="361"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="133" t="s">
@@ -19542,15 +19539,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="357"/>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="359"/>
+      <c r="A12" s="359"/>
+      <c r="B12" s="360"/>
+      <c r="C12" s="360"/>
+      <c r="D12" s="360"/>
+      <c r="E12" s="360"/>
+      <c r="F12" s="360"/>
+      <c r="G12" s="360"/>
+      <c r="H12" s="360"/>
+      <c r="I12" s="361"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="129" t="s">
@@ -19763,15 +19760,15 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="357"/>
-      <c r="B20" s="358"/>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="358"/>
-      <c r="H20" s="358"/>
-      <c r="I20" s="359"/>
+      <c r="A20" s="359"/>
+      <c r="B20" s="360"/>
+      <c r="C20" s="360"/>
+      <c r="D20" s="360"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="360"/>
+      <c r="G20" s="360"/>
+      <c r="H20" s="360"/>
+      <c r="I20" s="361"/>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="129" t="s">
@@ -19983,15 +19980,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="360"/>
-      <c r="B28" s="361"/>
-      <c r="C28" s="361"/>
-      <c r="D28" s="361"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="361"/>
-      <c r="G28" s="361"/>
-      <c r="H28" s="361"/>
-      <c r="I28" s="362"/>
+      <c r="A28" s="362"/>
+      <c r="B28" s="363"/>
+      <c r="C28" s="363"/>
+      <c r="D28" s="363"/>
+      <c r="E28" s="363"/>
+      <c r="F28" s="363"/>
+      <c r="G28" s="363"/>
+      <c r="H28" s="363"/>
+      <c r="I28" s="364"/>
     </row>
     <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="129" t="s">
@@ -20203,17 +20200,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="360" t="s">
+      <c r="A36" s="362" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="361"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="361"/>
-      <c r="E36" s="361"/>
-      <c r="F36" s="361"/>
-      <c r="G36" s="361"/>
-      <c r="H36" s="361"/>
-      <c r="I36" s="362"/>
+      <c r="B36" s="363"/>
+      <c r="C36" s="363"/>
+      <c r="D36" s="363"/>
+      <c r="E36" s="363"/>
+      <c r="F36" s="363"/>
+      <c r="G36" s="363"/>
+      <c r="H36" s="363"/>
+      <c r="I36" s="364"/>
     </row>
     <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A37" s="129" t="s">
@@ -20450,6 +20447,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A36:I36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:F2"/>
@@ -20461,11 +20463,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A36:I36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" r:id="rId1"/>
@@ -20480,7 +20477,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H21"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20491,39 +20488,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="375" t="s">
-        <v>655</v>
-      </c>
-      <c r="B1" s="375"/>
-      <c r="C1" s="375"/>
-      <c r="D1" s="375"/>
-      <c r="E1" s="375"/>
-      <c r="F1" s="375"/>
-      <c r="G1" s="375"/>
-      <c r="H1" s="375"/>
+      <c r="A1" s="365" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="258" t="s">
+      <c r="A2" s="310"/>
+      <c r="B2" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258" t="s">
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="369"/>
-      <c r="G2" s="258" t="s">
+      <c r="F2" s="366"/>
+      <c r="G2" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="369"/>
+      <c r="H2" s="366"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
+      <c r="A3" s="310"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -20548,7 +20545,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" s="117">
         <v>280864</v>
@@ -20723,32 +20720,32 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="375" t="s">
-        <v>656</v>
-      </c>
-      <c r="B12" s="375"/>
-      <c r="C12" s="375"/>
-      <c r="D12" s="375"/>
-      <c r="E12" s="375"/>
-      <c r="F12" s="375"/>
-      <c r="G12" s="375"/>
-      <c r="H12" s="375"/>
+      <c r="A12" s="365" t="s">
+        <v>655</v>
+      </c>
+      <c r="B12" s="365"/>
+      <c r="C12" s="365"/>
+      <c r="D12" s="365"/>
+      <c r="E12" s="365"/>
+      <c r="F12" s="365"/>
+      <c r="G12" s="365"/>
+      <c r="H12" s="365"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="373"/>
-      <c r="B13" s="258" t="s">
+      <c r="B13" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="258"/>
-      <c r="E13" s="258" t="s">
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="369"/>
-      <c r="G13" s="258" t="s">
+      <c r="F13" s="366"/>
+      <c r="G13" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="369"/>
+      <c r="H13" s="366"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="374"/>
@@ -20801,14 +20798,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="366"/>
-      <c r="B16" s="367"/>
-      <c r="C16" s="367"/>
-      <c r="D16" s="367"/>
-      <c r="E16" s="367"/>
-      <c r="F16" s="367"/>
-      <c r="G16" s="367"/>
-      <c r="H16" s="368"/>
+      <c r="A16" s="367"/>
+      <c r="B16" s="368"/>
+      <c r="C16" s="368"/>
+      <c r="D16" s="368"/>
+      <c r="E16" s="368"/>
+      <c r="F16" s="368"/>
+      <c r="G16" s="368"/>
+      <c r="H16" s="369"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
@@ -21045,11 +21042,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
@@ -21057,6 +21049,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -21081,112 +21078,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="348" t="s">
-        <v>657</v>
-      </c>
-      <c r="B1" s="348"/>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
+      <c r="A1" s="340" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="348"/>
-      <c r="B2" s="348"/>
-      <c r="C2" s="348"/>
-      <c r="D2" s="348"/>
-      <c r="E2" s="348"/>
-      <c r="F2" s="348"/>
-      <c r="G2" s="348"/>
-      <c r="H2" s="348"/>
+      <c r="A2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="311"/>
-      <c r="B3" s="258" t="s">
+      <c r="A3" s="310"/>
+      <c r="B3" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258" t="s">
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="369"/>
-      <c r="G3" s="258" t="s">
+      <c r="F3" s="366"/>
+      <c r="G3" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="369"/>
+      <c r="H3" s="366"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="311"/>
-      <c r="B4" s="267" t="s">
+      <c r="A4" s="310"/>
+      <c r="B4" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="267" t="s">
+      <c r="C4" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="267" t="s">
+      <c r="D4" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="267" t="s">
+      <c r="E4" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="267" t="s">
+      <c r="G4" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="267" t="s">
+      <c r="H4" s="263" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="311"/>
-      <c r="B5" s="267"/>
-      <c r="C5" s="267"/>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="267"/>
-      <c r="H5" s="267"/>
+      <c r="A5" s="310"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
+      <c r="E5" s="263"/>
+      <c r="F5" s="263"/>
+      <c r="G5" s="263"/>
+      <c r="H5" s="263"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="376" t="s">
+      <c r="A6" s="380" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="380">
+      <c r="B6" s="378">
         <v>1217890</v>
       </c>
-      <c r="C6" s="380">
+      <c r="C6" s="378">
         <v>504465</v>
       </c>
-      <c r="D6" s="380">
+      <c r="D6" s="378">
         <v>713425</v>
       </c>
-      <c r="E6" s="380">
+      <c r="E6" s="378">
         <v>79048</v>
       </c>
-      <c r="F6" s="380">
+      <c r="F6" s="378">
         <v>134258</v>
       </c>
-      <c r="G6" s="380">
+      <c r="G6" s="378">
         <v>425417</v>
       </c>
-      <c r="H6" s="380">
+      <c r="H6" s="378">
         <v>579167</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="376"/>
-      <c r="B7" s="381"/>
-      <c r="C7" s="381"/>
-      <c r="D7" s="381"/>
-      <c r="E7" s="381"/>
-      <c r="F7" s="381"/>
-      <c r="G7" s="381"/>
-      <c r="H7" s="381"/>
+      <c r="A7" s="380"/>
+      <c r="B7" s="379"/>
+      <c r="C7" s="379"/>
+      <c r="D7" s="379"/>
+      <c r="E7" s="379"/>
+      <c r="F7" s="379"/>
+      <c r="G7" s="379"/>
+      <c r="H7" s="379"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
@@ -21267,14 +21264,14 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="377"/>
-      <c r="B11" s="378"/>
-      <c r="C11" s="378"/>
-      <c r="D11" s="378"/>
-      <c r="E11" s="378"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="378"/>
-      <c r="H11" s="379"/>
+      <c r="A11" s="375"/>
+      <c r="B11" s="376"/>
+      <c r="C11" s="376"/>
+      <c r="D11" s="376"/>
+      <c r="E11" s="376"/>
+      <c r="F11" s="376"/>
+      <c r="G11" s="376"/>
+      <c r="H11" s="377"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="137" t="s">
@@ -21420,14 +21417,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -21441,6 +21430,14 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
@@ -21449,10 +21446,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21465,481 +21462,466 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="384" t="s">
+      <c r="A2" s="253" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="383" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383" t="s">
-        <v>518</v>
-      </c>
-      <c r="F2" s="383"/>
-      <c r="G2" s="382" t="s">
+      <c r="C2" s="253" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="253" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="253" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="253" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="243" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="243" t="s">
         <v>537</v>
       </c>
-      <c r="H2" s="382" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="383"/>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="384" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="384" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="384" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="382"/>
-      <c r="H3" s="382"/>
+      <c r="A3" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" s="104">
+        <v>916944</v>
+      </c>
+      <c r="C3" s="104">
+        <v>429744</v>
+      </c>
+      <c r="D3" s="104">
+        <v>487200</v>
+      </c>
+      <c r="E3" s="104">
+        <v>217769</v>
+      </c>
+      <c r="F3" s="104">
+        <v>699175</v>
+      </c>
+      <c r="G3" s="104">
+        <v>448544</v>
+      </c>
+      <c r="H3" s="104">
+        <v>468400</v>
+      </c>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="383"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="382"/>
-      <c r="H4" s="382"/>
+      <c r="A4" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="104">
+        <v>281998</v>
+      </c>
+      <c r="C4" s="104">
+        <v>139811</v>
+      </c>
+      <c r="D4" s="104">
+        <v>142187</v>
+      </c>
+      <c r="E4" s="104">
+        <v>54975</v>
+      </c>
+      <c r="F4" s="104">
+        <v>227023</v>
+      </c>
+      <c r="G4" s="104">
+        <v>116234</v>
+      </c>
+      <c r="H4" s="104">
+        <v>165764</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
-        <v>380</v>
+      <c r="A5" s="140" t="s">
+        <v>242</v>
       </c>
       <c r="B5" s="104">
-        <v>916944</v>
+        <v>287349</v>
       </c>
       <c r="C5" s="104">
-        <v>429744</v>
+        <v>123019</v>
       </c>
       <c r="D5" s="104">
-        <v>487200</v>
+        <v>164330</v>
       </c>
       <c r="E5" s="104">
-        <v>217769</v>
+        <v>83045</v>
       </c>
       <c r="F5" s="104">
-        <v>699175</v>
+        <v>204304</v>
       </c>
       <c r="G5" s="104">
-        <v>448544</v>
+        <v>123055</v>
       </c>
       <c r="H5" s="104">
-        <v>468400</v>
+        <v>164294</v>
       </c>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="383"/>
-      <c r="B6" s="383"/>
-      <c r="C6" s="383"/>
-      <c r="D6" s="383"/>
-      <c r="E6" s="383"/>
-      <c r="F6" s="383"/>
-      <c r="G6" s="383"/>
-      <c r="H6" s="383"/>
+      <c r="A6" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="104">
+        <v>292406</v>
+      </c>
+      <c r="C6" s="104">
+        <v>135460</v>
+      </c>
+      <c r="D6" s="104">
+        <v>156946</v>
+      </c>
+      <c r="E6" s="104">
+        <v>68757</v>
+      </c>
+      <c r="F6" s="104">
+        <v>223650</v>
+      </c>
+      <c r="G6" s="104">
+        <v>170507</v>
+      </c>
+      <c r="H6" s="104">
+        <v>121899</v>
+      </c>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="140" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B7" s="104">
-        <v>281998</v>
+        <v>45895</v>
       </c>
       <c r="C7" s="104">
-        <v>139811</v>
+        <v>26531</v>
       </c>
       <c r="D7" s="104">
-        <v>142187</v>
+        <v>19364</v>
       </c>
       <c r="E7" s="104">
-        <v>54975</v>
+        <v>9838</v>
       </c>
       <c r="F7" s="104">
-        <v>227023</v>
+        <v>36058</v>
       </c>
       <c r="G7" s="104">
-        <v>116234</v>
+        <v>32199</v>
       </c>
       <c r="H7" s="104">
-        <v>165764</v>
-      </c>
-      <c r="I7" s="57"/>
-      <c r="L7" s="12"/>
+        <v>13696</v>
+      </c>
+      <c r="L7" s="57"/>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="140" t="s">
-        <v>242</v>
+        <v>333</v>
       </c>
       <c r="B8" s="104">
-        <v>287349</v>
+        <v>9296</v>
       </c>
       <c r="C8" s="104">
-        <v>123019</v>
+        <v>4923</v>
       </c>
       <c r="D8" s="104">
-        <v>164330</v>
+        <v>4372</v>
       </c>
       <c r="E8" s="104">
-        <v>83045</v>
+        <v>1155</v>
       </c>
       <c r="F8" s="104">
-        <v>204304</v>
+        <v>8141</v>
       </c>
       <c r="G8" s="104">
-        <v>123055</v>
+        <v>6549</v>
       </c>
       <c r="H8" s="104">
-        <v>164294</v>
+        <v>2747</v>
       </c>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="104">
-        <v>292406</v>
-      </c>
-      <c r="C9" s="104">
-        <v>135460</v>
-      </c>
-      <c r="D9" s="104">
-        <v>156946</v>
-      </c>
-      <c r="E9" s="104">
-        <v>68757</v>
-      </c>
-      <c r="F9" s="104">
-        <v>223650</v>
-      </c>
-      <c r="G9" s="104">
-        <v>170507</v>
-      </c>
-      <c r="H9" s="104">
-        <v>121899</v>
-      </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="104">
-        <v>45895</v>
-      </c>
-      <c r="C10" s="104">
-        <v>26531</v>
-      </c>
-      <c r="D10" s="104">
-        <v>19364</v>
-      </c>
-      <c r="E10" s="104">
-        <v>9838</v>
-      </c>
-      <c r="F10" s="104">
-        <v>36058</v>
-      </c>
-      <c r="G10" s="104">
-        <v>32199</v>
-      </c>
-      <c r="H10" s="104">
-        <v>13696</v>
-      </c>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
+        <v>658</v>
+      </c>
       <c r="N10" s="57"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="140" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="104">
-        <v>9296</v>
-      </c>
-      <c r="C11" s="104">
-        <v>4923</v>
-      </c>
-      <c r="D11" s="104">
-        <v>4372</v>
-      </c>
-      <c r="E11" s="104">
-        <v>1155</v>
-      </c>
-      <c r="F11" s="104">
-        <v>8141</v>
-      </c>
-      <c r="G11" s="104">
-        <v>6549</v>
-      </c>
-      <c r="H11" s="104">
-        <v>2747</v>
-      </c>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="253" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="253" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="253" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="253" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="253" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="243" t="s">
+        <v>536</v>
+      </c>
+      <c r="H11" s="243" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="N13" s="57"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="383"/>
-      <c r="B14" s="384" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="383" t="s">
-        <v>519</v>
-      </c>
-      <c r="D14" s="383"/>
-      <c r="E14" s="383" t="s">
-        <v>518</v>
-      </c>
-      <c r="F14" s="383"/>
-      <c r="G14" s="382" t="s">
-        <v>537</v>
-      </c>
-      <c r="H14" s="382" t="s">
-        <v>538</v>
+      <c r="A12" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="B12" s="104">
+        <v>916944</v>
+      </c>
+      <c r="C12" s="104">
+        <v>429744</v>
+      </c>
+      <c r="D12" s="104">
+        <v>487200</v>
+      </c>
+      <c r="E12" s="104">
+        <v>217769</v>
+      </c>
+      <c r="F12" s="104">
+        <v>699175</v>
+      </c>
+      <c r="G12" s="104">
+        <v>448544</v>
+      </c>
+      <c r="H12" s="104">
+        <v>468400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="140" t="s">
+        <v>685</v>
+      </c>
+      <c r="B13" s="104">
+        <v>362983</v>
+      </c>
+      <c r="C13" s="104">
+        <v>173859</v>
+      </c>
+      <c r="D13" s="104">
+        <v>189123</v>
+      </c>
+      <c r="E13" s="104">
+        <v>34580</v>
+      </c>
+      <c r="F13" s="104">
+        <v>328402</v>
+      </c>
+      <c r="G13" s="104">
+        <v>208142</v>
+      </c>
+      <c r="H13" s="104">
+        <v>154840</v>
+      </c>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="140" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="104">
+        <v>282708</v>
+      </c>
+      <c r="C14" s="104">
+        <v>133000</v>
+      </c>
+      <c r="D14" s="104">
+        <v>149708</v>
+      </c>
+      <c r="E14" s="104">
+        <v>47556</v>
+      </c>
+      <c r="F14" s="104">
+        <v>235151</v>
+      </c>
+      <c r="G14" s="104">
+        <v>159300</v>
+      </c>
+      <c r="H14" s="104">
+        <v>123408</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="383"/>
-      <c r="B15" s="384"/>
-      <c r="C15" s="384" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="384" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="384" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="384" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
+      <c r="A15" s="140" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" s="104">
+        <v>68563</v>
+      </c>
+      <c r="C15" s="104">
+        <v>29476</v>
+      </c>
+      <c r="D15" s="104">
+        <v>39087</v>
+      </c>
+      <c r="E15" s="104">
+        <v>23654</v>
+      </c>
+      <c r="F15" s="104">
+        <v>44909</v>
+      </c>
+      <c r="G15" s="104">
+        <v>27647</v>
+      </c>
+      <c r="H15" s="104">
+        <v>40916</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="383"/>
-      <c r="B16" s="384"/>
-      <c r="C16" s="384"/>
-      <c r="D16" s="384"/>
-      <c r="E16" s="384"/>
-      <c r="F16" s="384"/>
-      <c r="G16" s="382"/>
-      <c r="H16" s="382"/>
+      <c r="A16" s="140" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="104">
+        <v>151494</v>
+      </c>
+      <c r="C16" s="104">
+        <v>68537</v>
+      </c>
+      <c r="D16" s="104">
+        <v>82957</v>
+      </c>
+      <c r="E16" s="104">
+        <v>74449</v>
+      </c>
+      <c r="F16" s="104">
+        <v>77045</v>
+      </c>
+      <c r="G16" s="104">
+        <v>45907</v>
+      </c>
+      <c r="H16" s="104">
+        <v>105586</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
-        <v>380</v>
+      <c r="A17" s="140" t="s">
+        <v>312</v>
       </c>
       <c r="B17" s="104">
-        <v>916944</v>
+        <v>51197</v>
       </c>
       <c r="C17" s="104">
-        <v>429744</v>
+        <v>24872</v>
       </c>
       <c r="D17" s="104">
-        <v>487200</v>
+        <v>26325</v>
       </c>
       <c r="E17" s="104">
-        <v>217769</v>
+        <v>37530</v>
       </c>
       <c r="F17" s="104">
-        <v>699175</v>
+        <v>13667</v>
       </c>
       <c r="G17" s="104">
-        <v>448544</v>
+        <v>7547</v>
       </c>
       <c r="H17" s="104">
-        <v>468400</v>
+        <v>43650</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="383"/>
-      <c r="B18" s="383"/>
-      <c r="C18" s="383"/>
-      <c r="D18" s="383"/>
-      <c r="E18" s="383"/>
-      <c r="F18" s="383"/>
-      <c r="G18" s="383"/>
-      <c r="H18" s="383"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="104">
-        <v>362983</v>
-      </c>
-      <c r="C19" s="104">
-        <v>173859</v>
-      </c>
-      <c r="D19" s="104">
-        <v>189123</v>
-      </c>
-      <c r="E19" s="104">
-        <v>34580</v>
-      </c>
-      <c r="F19" s="104">
-        <v>328402</v>
-      </c>
-      <c r="G19" s="104">
-        <v>208142</v>
-      </c>
-      <c r="H19" s="104">
-        <v>154840</v>
-      </c>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="104">
-        <v>282708</v>
-      </c>
-      <c r="C20" s="104">
-        <v>133000</v>
-      </c>
-      <c r="D20" s="104">
-        <v>149708</v>
-      </c>
-      <c r="E20" s="104">
-        <v>47556</v>
-      </c>
-      <c r="F20" s="104">
-        <v>235151</v>
-      </c>
-      <c r="G20" s="104">
-        <v>159300</v>
-      </c>
-      <c r="H20" s="104">
-        <v>123408</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
-        <v>311</v>
-      </c>
-      <c r="B21" s="104">
-        <v>68563</v>
-      </c>
-      <c r="C21" s="104">
-        <v>29476</v>
-      </c>
-      <c r="D21" s="104">
-        <v>39087</v>
-      </c>
-      <c r="E21" s="104">
-        <v>23654</v>
-      </c>
-      <c r="F21" s="104">
-        <v>44909</v>
-      </c>
-      <c r="G21" s="104">
-        <v>27647</v>
-      </c>
-      <c r="H21" s="104">
-        <v>40916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="140" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="104">
-        <v>151494</v>
-      </c>
-      <c r="C22" s="104">
-        <v>68537</v>
-      </c>
-      <c r="D22" s="104">
-        <v>82957</v>
-      </c>
-      <c r="E22" s="104">
-        <v>74449</v>
-      </c>
-      <c r="F22" s="104">
-        <v>77045</v>
-      </c>
-      <c r="G22" s="104">
-        <v>45907</v>
-      </c>
-      <c r="H22" s="104">
-        <v>105586</v>
-      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="140" t="s">
-        <v>312</v>
-      </c>
-      <c r="B23" s="104">
-        <v>51197</v>
-      </c>
-      <c r="C23" s="104">
-        <v>24872</v>
-      </c>
-      <c r="D23" s="104">
-        <v>26325</v>
-      </c>
-      <c r="E23" s="104">
-        <v>37530</v>
-      </c>
-      <c r="F23" s="104">
-        <v>13667</v>
-      </c>
-      <c r="G23" s="104">
-        <v>7547</v>
-      </c>
-      <c r="H23" s="104">
-        <v>43650</v>
-      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="M23" s="57"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="M24" s="57"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="M25" s="57"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="M26" s="57"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="57"/>
@@ -21949,92 +21931,19 @@
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
       <c r="H27" s="57"/>
+      <c r="M27" s="57"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
       <c r="M29" s="57"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="M30" s="57"/>
-    </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
       <c r="H31" s="57"/>
-      <c r="M31" s="57"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="57"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="H37" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E14:F14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -22047,8 +21956,8 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22061,50 +21970,50 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="384" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="384" t="s">
+      <c r="C2" s="381" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="384" t="s">
+      <c r="D2" s="381" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="384" t="s">
+      <c r="E2" s="381" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="384" t="s">
+      <c r="F2" s="381" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="382" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="382" t="s">
         <v>537</v>
       </c>
-      <c r="H2" s="382" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
+      <c r="A3" s="384"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
       <c r="G3" s="382"/>
       <c r="H3" s="382"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
+      <c r="A4" s="384"/>
+      <c r="B4" s="381"/>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
       <c r="G4" s="382"/>
       <c r="H4" s="382"/>
     </row>
@@ -22136,14 +22045,14 @@
       <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="386"/>
-      <c r="B6" s="386"/>
-      <c r="C6" s="386"/>
-      <c r="D6" s="386"/>
-      <c r="E6" s="386"/>
-      <c r="F6" s="386"/>
-      <c r="G6" s="386"/>
-      <c r="H6" s="386"/>
+      <c r="A6" s="384"/>
+      <c r="B6" s="384"/>
+      <c r="C6" s="384"/>
+      <c r="D6" s="384"/>
+      <c r="E6" s="384"/>
+      <c r="F6" s="384"/>
+      <c r="G6" s="384"/>
+      <c r="H6" s="384"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
@@ -22352,26 +22261,26 @@
       <c r="H15" s="142"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="385" t="s">
+      <c r="A16" s="383" t="s">
         <v>475</v>
       </c>
-      <c r="B16" s="385"/>
-      <c r="C16" s="385"/>
-      <c r="D16" s="385"/>
-      <c r="E16" s="385"/>
-      <c r="F16" s="385"/>
-      <c r="G16" s="385"/>
-      <c r="H16" s="385"/>
+      <c r="B16" s="383"/>
+      <c r="C16" s="383"/>
+      <c r="D16" s="383"/>
+      <c r="E16" s="383"/>
+      <c r="F16" s="383"/>
+      <c r="G16" s="383"/>
+      <c r="H16" s="383"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="385"/>
-      <c r="B17" s="385"/>
-      <c r="C17" s="385"/>
-      <c r="D17" s="385"/>
-      <c r="E17" s="385"/>
-      <c r="F17" s="385"/>
-      <c r="G17" s="385"/>
-      <c r="H17" s="385"/>
+      <c r="A17" s="383"/>
+      <c r="B17" s="383"/>
+      <c r="C17" s="383"/>
+      <c r="D17" s="383"/>
+      <c r="E17" s="383"/>
+      <c r="F17" s="383"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="383"/>
     </row>
     <row r="18" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -22385,33 +22294,33 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="248" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="247" t="s">
+      <c r="A20" s="245" t="s">
+        <v>680</v>
+      </c>
+      <c r="B20" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="247" t="s">
+      <c r="C20" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="247" t="s">
+      <c r="D20" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="247" t="s">
+      <c r="E20" s="244" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="247" t="s">
+      <c r="F20" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="246" t="s">
+      <c r="G20" s="243" t="s">
+        <v>536</v>
+      </c>
+      <c r="H20" s="243" t="s">
         <v>537</v>
-      </c>
-      <c r="H20" s="246" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -22711,36 +22620,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="266"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="262"/>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="266"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
+      <c r="A3" s="262"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
@@ -22767,12 +22676,12 @@
       <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="263"/>
-      <c r="B5" s="264"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="265"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="260"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="261"/>
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -23139,44 +23048,44 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="261" t="s">
+      <c r="A24" s="265" t="s">
         <v>347</v>
       </c>
-      <c r="B24" s="261" t="s">
+      <c r="B24" s="265" t="s">
         <v>348</v>
       </c>
-      <c r="C24" s="261" t="s">
+      <c r="C24" s="265" t="s">
         <v>502</v>
       </c>
-      <c r="D24" s="261"/>
-      <c r="E24" s="258" t="s">
+      <c r="D24" s="265"/>
+      <c r="E24" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="258"/>
-      <c r="G24" s="261" t="s">
+      <c r="F24" s="257"/>
+      <c r="G24" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H24" s="260" t="s">
+      <c r="H24" s="264" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="261"/>
-      <c r="B25" s="261"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="258"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="260"/>
+      <c r="A25" s="265"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="265"/>
+      <c r="E25" s="266"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="265"/>
+      <c r="H25" s="264"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="261"/>
-      <c r="B26" s="261"/>
+      <c r="A26" s="265"/>
+      <c r="B26" s="265"/>
       <c r="C26" s="96" t="s">
         <v>307</v>
       </c>
@@ -23189,8 +23098,8 @@
       <c r="F26" s="96" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="261"/>
-      <c r="H26" s="260"/>
+      <c r="G26" s="265"/>
+      <c r="H26" s="264"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="99"/>
@@ -23502,6 +23411,12 @@
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:F25"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -23509,12 +23424,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:F25"/>
-    <mergeCell ref="G24:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -23544,28 +23453,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="387" t="s">
-        <v>539</v>
-      </c>
-      <c r="B2" s="345" t="s">
+      <c r="A2" s="385" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="342" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="345" t="s">
+      <c r="C2" s="342" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345" t="s">
+      <c r="D2" s="342"/>
+      <c r="E2" s="342" t="s">
         <v>518</v>
       </c>
-      <c r="F2" s="345"/>
+      <c r="F2" s="342"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="387"/>
-      <c r="B3" s="345"/>
+      <c r="A3" s="385"/>
+      <c r="B3" s="342"/>
       <c r="C3" s="105" t="s">
         <v>45</v>
       </c>
@@ -23716,28 +23625,28 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="388" t="s">
+      <c r="A12" s="386" t="s">
         <v>370</v>
       </c>
-      <c r="B12" s="388" t="s">
+      <c r="B12" s="386" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="311" t="s">
+      <c r="C12" s="310" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311" t="s">
+      <c r="D12" s="310"/>
+      <c r="E12" s="310" t="s">
         <v>518</v>
       </c>
-      <c r="F12" s="311"/>
+      <c r="F12" s="310"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="388"/>
-      <c r="B13" s="388"/>
+      <c r="A13" s="386"/>
+      <c r="B13" s="386"/>
       <c r="C13" s="103" t="s">
         <v>45</v>
       </c>
@@ -24264,8 +24173,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24278,50 +24187,50 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="386"/>
-      <c r="B2" s="384" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="384" t="s">
+      <c r="C2" s="381" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="384" t="s">
+      <c r="D2" s="381" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="384" t="s">
+      <c r="E2" s="381" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="384" t="s">
+      <c r="F2" s="381" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="382" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" s="382" t="s">
         <v>537</v>
       </c>
-      <c r="H2" s="382" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="386"/>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="384"/>
-      <c r="F3" s="384"/>
+      <c r="A3" s="384"/>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
       <c r="G3" s="382"/>
       <c r="H3" s="382"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="386"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
+      <c r="A4" s="384"/>
+      <c r="B4" s="381"/>
+      <c r="C4" s="381"/>
+      <c r="D4" s="381"/>
+      <c r="E4" s="381"/>
+      <c r="F4" s="381"/>
       <c r="G4" s="382"/>
       <c r="H4" s="382"/>
     </row>
@@ -24467,50 +24376,50 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="386"/>
-      <c r="B12" s="384" t="s">
+      <c r="A12" s="384"/>
+      <c r="B12" s="381" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="384" t="s">
+      <c r="C12" s="381" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="384" t="s">
+      <c r="D12" s="381" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="384" t="s">
+      <c r="E12" s="381" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="384" t="s">
+      <c r="F12" s="381" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="382" t="s">
+        <v>536</v>
+      </c>
+      <c r="H12" s="382" t="s">
         <v>537</v>
       </c>
-      <c r="H12" s="382" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="386"/>
-      <c r="B13" s="384"/>
-      <c r="C13" s="384"/>
-      <c r="D13" s="384"/>
-      <c r="E13" s="384"/>
-      <c r="F13" s="384"/>
+      <c r="A13" s="384"/>
+      <c r="B13" s="381"/>
+      <c r="C13" s="381"/>
+      <c r="D13" s="381"/>
+      <c r="E13" s="381"/>
+      <c r="F13" s="381"/>
       <c r="G13" s="382"/>
       <c r="H13" s="382"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="386"/>
-      <c r="B14" s="384"/>
-      <c r="C14" s="384"/>
-      <c r="D14" s="384"/>
-      <c r="E14" s="384"/>
-      <c r="F14" s="384"/>
+      <c r="A14" s="384"/>
+      <c r="B14" s="381"/>
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
       <c r="G14" s="382"/>
       <c r="H14" s="382"/>
     </row>
@@ -24916,35 +24825,35 @@
       <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="389" t="s">
-        <v>528</v>
-      </c>
-      <c r="B31" s="389"/>
-      <c r="C31" s="389"/>
-      <c r="D31" s="389"/>
-      <c r="E31" s="389"/>
-      <c r="F31" s="389"/>
-      <c r="G31" s="389"/>
-      <c r="H31" s="389"/>
+      <c r="A31" s="387" t="s">
+        <v>527</v>
+      </c>
+      <c r="B31" s="387"/>
+      <c r="C31" s="387"/>
+      <c r="D31" s="387"/>
+      <c r="E31" s="387"/>
+      <c r="F31" s="387"/>
+      <c r="G31" s="387"/>
+      <c r="H31" s="387"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="311"/>
-      <c r="B32" s="258" t="s">
+      <c r="A32" s="310"/>
+      <c r="B32" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="258"/>
-      <c r="D32" s="258"/>
-      <c r="E32" s="258" t="s">
+      <c r="C32" s="257"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="257" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="369"/>
-      <c r="G32" s="258" t="s">
+      <c r="F32" s="366"/>
+      <c r="G32" s="257" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="369"/>
+      <c r="H32" s="366"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="311"/>
+      <c r="A33" s="310"/>
       <c r="B33" s="96" t="s">
         <v>9</v>
       </c>
@@ -24995,7 +24904,7 @@
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B35" s="117">
         <v>1948371</v>
@@ -25047,7 +24956,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B37" s="117">
         <v>1042777</v>
@@ -25073,7 +24982,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B38" s="117">
         <v>583259</v>
@@ -25099,7 +25008,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B39" s="117">
         <v>847936</v>
@@ -25125,7 +25034,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="99" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B40" s="117">
         <v>384801</v>
@@ -25151,7 +25060,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="99" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B41" s="117">
         <v>460791</v>
@@ -25177,7 +25086,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="99" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B42" s="117">
         <v>2105</v>
@@ -25203,7 +25112,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="99" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B43" s="117">
         <v>5176</v>
@@ -25229,6 +25138,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
@@ -25245,11 +25159,6 @@
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="A31:H31"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="landscape" r:id="rId1"/>
@@ -25278,39 +25187,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="348" t="s">
-        <v>666</v>
-      </c>
-      <c r="C1" s="348"/>
-      <c r="D1" s="348"/>
-      <c r="E1" s="348"/>
-      <c r="F1" s="348"/>
-      <c r="G1" s="348"/>
-      <c r="H1" s="348"/>
-      <c r="I1" s="348"/>
+      <c r="B1" s="340" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="306"/>
-      <c r="C2" s="258" t="s">
+      <c r="B2" s="305"/>
+      <c r="C2" s="257" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="312" t="s">
+      <c r="D2" s="257"/>
+      <c r="E2" s="257"/>
+      <c r="F2" s="311" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="313"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="312" t="s">
+      <c r="G2" s="312"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="311" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="313"/>
-      <c r="K2" s="314"/>
+      <c r="J2" s="312"/>
+      <c r="K2" s="313"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="306"/>
+      <c r="B3" s="305"/>
       <c r="C3" s="96" t="s">
         <v>9</v>
       </c>
@@ -25372,16 +25281,16 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="263"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="264"/>
-      <c r="I5" s="264"/>
-      <c r="J5" s="264"/>
-      <c r="K5" s="265"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="260"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="260"/>
+      <c r="F5" s="260"/>
+      <c r="G5" s="260"/>
+      <c r="H5" s="260"/>
+      <c r="I5" s="260"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="261"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="147" t="s">
@@ -25608,16 +25517,16 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="312"/>
-      <c r="C13" s="313"/>
-      <c r="D13" s="313"/>
-      <c r="E13" s="313"/>
-      <c r="F13" s="313"/>
-      <c r="G13" s="313"/>
-      <c r="H13" s="313"/>
-      <c r="I13" s="313"/>
-      <c r="J13" s="313"/>
-      <c r="K13" s="314"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="312"/>
+      <c r="D13" s="312"/>
+      <c r="E13" s="312"/>
+      <c r="F13" s="312"/>
+      <c r="G13" s="312"/>
+      <c r="H13" s="312"/>
+      <c r="I13" s="312"/>
+      <c r="J13" s="312"/>
+      <c r="K13" s="313"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="97" t="s">
@@ -25918,7 +25827,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="390" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B1" s="390"/>
       <c r="C1" s="390"/>
@@ -25943,25 +25852,25 @@
       <c r="J2" s="390"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="391"/>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="388"/>
+      <c r="B3" s="310" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311" t="s">
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311"/>
-      <c r="H3" s="311" t="s">
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="392"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="103" t="s">
         <v>9</v>
       </c>
@@ -26304,7 +26213,7 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="390" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B16" s="390"/>
       <c r="C16" s="390"/>
@@ -26329,25 +26238,25 @@
       <c r="J17" s="390"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="311"/>
-      <c r="B18" s="311" t="s">
+      <c r="A18" s="310"/>
+      <c r="B18" s="310" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="311"/>
-      <c r="D18" s="311"/>
-      <c r="E18" s="311" t="s">
+      <c r="C18" s="310"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="311"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311" t="s">
+      <c r="F18" s="310"/>
+      <c r="G18" s="310"/>
+      <c r="H18" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
+      <c r="I18" s="310"/>
+      <c r="J18" s="310"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="311"/>
+      <c r="A19" s="310"/>
       <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
@@ -26702,17 +26611,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A16:J17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A16:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
@@ -26735,42 +26644,42 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="393" t="s">
+      <c r="E2" s="391" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="267" t="s">
+      <c r="G2" s="263" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="267" t="s">
+      <c r="H2" s="263" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="391"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -26920,14 +26829,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="311"/>
-      <c r="B9" s="311"/>
-      <c r="C9" s="311"/>
-      <c r="D9" s="311"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
+      <c r="A9" s="310"/>
+      <c r="B9" s="310"/>
+      <c r="C9" s="310"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="310"/>
+      <c r="F9" s="310"/>
+      <c r="G9" s="310"/>
+      <c r="H9" s="310"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
@@ -27075,14 +26984,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="311"/>
-      <c r="B15" s="311"/>
-      <c r="C15" s="311"/>
-      <c r="D15" s="311"/>
-      <c r="E15" s="311"/>
-      <c r="F15" s="311"/>
-      <c r="G15" s="311"/>
-      <c r="H15" s="311"/>
+      <c r="A15" s="310"/>
+      <c r="B15" s="310"/>
+      <c r="C15" s="310"/>
+      <c r="D15" s="310"/>
+      <c r="E15" s="310"/>
+      <c r="F15" s="310"/>
+      <c r="G15" s="310"/>
+      <c r="H15" s="310"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
@@ -27261,7 +27170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -27273,44 +27182,44 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="267" t="s">
-        <v>540</v>
-      </c>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="263" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="393" t="s">
+      <c r="E2" s="391" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="267" t="s">
+      <c r="G2" s="263" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="267" t="s">
+      <c r="H2" s="263" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="267"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="393"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
+      <c r="A3" s="263"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="391"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -27763,14 +27672,14 @@
       <c r="I18" s="45"/>
     </row>
     <row r="19" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="377"/>
-      <c r="B19" s="378"/>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="378"/>
-      <c r="F19" s="378"/>
-      <c r="G19" s="378"/>
-      <c r="H19" s="379"/>
+      <c r="A19" s="375"/>
+      <c r="B19" s="376"/>
+      <c r="C19" s="376"/>
+      <c r="D19" s="376"/>
+      <c r="E19" s="376"/>
+      <c r="F19" s="376"/>
+      <c r="G19" s="376"/>
+      <c r="H19" s="377"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
@@ -28218,14 +28127,14 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="377"/>
-      <c r="B36" s="378"/>
-      <c r="C36" s="378"/>
-      <c r="D36" s="378"/>
-      <c r="E36" s="378"/>
-      <c r="F36" s="378"/>
-      <c r="G36" s="378"/>
-      <c r="H36" s="379"/>
+      <c r="A36" s="375"/>
+      <c r="B36" s="376"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="376"/>
+      <c r="E36" s="376"/>
+      <c r="F36" s="376"/>
+      <c r="G36" s="376"/>
+      <c r="H36" s="377"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="99" t="s">
@@ -28722,42 +28631,42 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="393" t="s">
+      <c r="G2" s="391" t="s">
+        <v>540</v>
+      </c>
+      <c r="H2" s="391" t="s">
         <v>541</v>
       </c>
-      <c r="H2" s="393" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="393"/>
-      <c r="H3" s="393"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="391"/>
+      <c r="H3" s="391"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -29578,7 +29487,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -30818,28 +30727,28 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="258" t="s">
-        <v>520</v>
-      </c>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="257" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="257"/>
+      <c r="D2" s="257"/>
+      <c r="E2" s="257" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="257" t="s">
         <v>247</v>
       </c>
-      <c r="G2" s="258" t="s">
+      <c r="G2" s="257" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
+      <c r="A3" s="257"/>
       <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
@@ -30849,9 +30758,9 @@
       <c r="D3" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -31408,43 +31317,43 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="394"/>
-      <c r="B2" s="397" t="s">
-        <v>521</v>
-      </c>
-      <c r="C2" s="397"/>
-      <c r="D2" s="397"/>
-      <c r="E2" s="395" t="s">
+      <c r="A2" s="395"/>
+      <c r="B2" s="394" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="394"/>
+      <c r="D2" s="394"/>
+      <c r="E2" s="392" t="s">
         <v>249</v>
       </c>
-      <c r="F2" s="395" t="s">
+      <c r="F2" s="392" t="s">
         <v>250</v>
       </c>
-      <c r="G2" s="395" t="s">
+      <c r="G2" s="392" t="s">
         <v>251</v>
       </c>
-      <c r="H2" s="395" t="s">
+      <c r="H2" s="392" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="395" t="s">
+      <c r="I2" s="392" t="s">
         <v>253</v>
       </c>
-      <c r="J2" s="395" t="s">
+      <c r="J2" s="392" t="s">
         <v>254</v>
       </c>
-      <c r="K2" s="395" t="s">
+      <c r="K2" s="392" t="s">
         <v>255</v>
       </c>
-      <c r="L2" s="395" t="s">
+      <c r="L2" s="392" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="394"/>
+      <c r="A3" s="395"/>
       <c r="B3" s="163" t="s">
         <v>9</v>
       </c>
@@ -31454,14 +31363,14 @@
       <c r="D3" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="396"/>
-      <c r="F3" s="396"/>
-      <c r="G3" s="396"/>
-      <c r="H3" s="396"/>
-      <c r="I3" s="396"/>
-      <c r="J3" s="396"/>
-      <c r="K3" s="396"/>
-      <c r="L3" s="396"/>
+      <c r="E3" s="393"/>
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393"/>
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393"/>
+      <c r="L3" s="393"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="102" t="s">
@@ -32277,16 +32186,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -32318,7 +32227,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -32329,28 +32238,28 @@
       <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="245" t="s">
+      <c r="A2" s="242" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="242" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="245" t="s">
+      <c r="C2" s="242" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="245" t="s">
+      <c r="D2" s="242" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="245" t="s">
+      <c r="E2" s="242" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="245" t="s">
+      <c r="F2" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="245" t="s">
+      <c r="G2" s="242" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="245" t="s">
+      <c r="H2" s="242" t="s">
         <v>165</v>
       </c>
     </row>
@@ -32550,7 +32459,7 @@
     </row>
     <row r="11" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -32588,7 +32497,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B13" s="149">
         <v>214763</v>
@@ -32875,16 +32784,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="352" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="341" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
       <c r="E2" s="346" t="s">
         <v>478</v>
       </c>
@@ -32908,7 +32817,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
+      <c r="A3" s="257"/>
       <c r="B3" s="116" t="s">
         <v>9</v>
       </c>
@@ -32963,7 +32872,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B5" s="113">
         <v>346774</v>
@@ -32998,7 +32907,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="113">
         <v>8914</v>
@@ -33068,7 +32977,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B8" s="113">
         <v>286</v>
@@ -33103,7 +33012,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B9" s="113">
         <v>920</v>
@@ -33173,7 +33082,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B11" s="113">
         <v>60486</v>
@@ -33208,7 +33117,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B12" s="113">
         <v>40808</v>
@@ -33243,7 +33152,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B13" s="113">
         <v>10459</v>
@@ -33278,7 +33187,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B14" s="113">
         <v>254</v>
@@ -33313,7 +33222,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B15" s="113">
         <v>4215</v>
@@ -33348,7 +33257,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B16" s="113">
         <v>276</v>
@@ -33383,7 +33292,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B17" s="113">
         <v>1497</v>
@@ -33418,7 +33327,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B18" s="113">
         <v>4606</v>
@@ -33453,7 +33362,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="113">
         <v>4273</v>
@@ -33523,7 +33432,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" s="113">
         <v>5846</v>
@@ -33558,7 +33467,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B22" s="113">
         <v>296</v>
@@ -33593,7 +33502,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B23" s="113">
         <v>15626</v>
@@ -33628,7 +33537,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="113">
         <v>10043</v>
@@ -33663,7 +33572,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B25" s="113">
         <v>183</v>
@@ -33749,46 +33658,46 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="398" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="396" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="396" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="398" t="s">
+      <c r="D2" s="396" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="398" t="s">
+      <c r="E2" s="396" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="396" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="396" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="396" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="398" t="s">
+      <c r="I2" s="396" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="399"/>
-      <c r="C3" s="399"/>
-      <c r="D3" s="399"/>
-      <c r="E3" s="399"/>
-      <c r="F3" s="399"/>
-      <c r="G3" s="399"/>
-      <c r="H3" s="399"/>
-      <c r="I3" s="399"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="397"/>
+      <c r="I3" s="397"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -33832,7 +33741,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" s="113">
         <v>333595</v>
@@ -33861,7 +33770,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="113">
         <v>17161</v>
@@ -33919,7 +33828,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="113">
         <v>1150</v>
@@ -33948,7 +33857,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" s="113">
         <v>654</v>
@@ -34006,7 +33915,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12" s="113">
         <v>49987</v>
@@ -34035,7 +33944,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B13" s="113">
         <v>24746</v>
@@ -34064,7 +33973,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B14" s="113">
         <v>8792</v>
@@ -34093,7 +34002,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B15" s="113">
         <v>537</v>
@@ -34122,7 +34031,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" s="113">
         <v>2507</v>
@@ -34151,7 +34060,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B17" s="113">
         <v>626</v>
@@ -34180,7 +34089,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B18" s="113">
         <v>1210</v>
@@ -34209,7 +34118,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="113">
         <v>6463</v>
@@ -34267,7 +34176,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" s="113">
         <v>34052</v>
@@ -34296,7 +34205,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B22" s="113">
         <v>5256</v>
@@ -34325,7 +34234,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B23" s="113">
         <v>552</v>
@@ -34354,7 +34263,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="113">
         <v>11195</v>
@@ -34459,54 +34368,54 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="258"/>
-      <c r="B2" s="267" t="s">
+      <c r="A2" s="257"/>
+      <c r="B2" s="263" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="267" t="s">
+      <c r="D2" s="263" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="267" t="s">
+      <c r="E2" s="263" t="s">
         <v>268</v>
       </c>
-      <c r="F2" s="267" t="s">
+      <c r="F2" s="263" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="267" t="s">
+      <c r="G2" s="263" t="s">
         <v>270</v>
       </c>
-      <c r="H2" s="267" t="s">
+      <c r="H2" s="263" t="s">
         <v>271</v>
       </c>
-      <c r="I2" s="267" t="s">
+      <c r="I2" s="263" t="s">
         <v>272</v>
       </c>
-      <c r="J2" s="267" t="s">
+      <c r="J2" s="263" t="s">
         <v>273</v>
       </c>
-      <c r="K2" s="267" t="s">
+      <c r="K2" s="263" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="267"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
-      <c r="K3" s="267"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="263"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="263"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="99" t="s">
@@ -34558,7 +34467,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="99" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" s="113">
         <v>499079</v>
@@ -34593,7 +34502,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" s="113">
         <v>2938</v>
@@ -34663,7 +34572,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B9" s="113">
         <v>464</v>
@@ -34698,7 +34607,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B10" s="113">
         <v>940</v>
@@ -34768,7 +34677,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B12" s="113">
         <v>69377</v>
@@ -34803,7 +34712,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B13" s="113">
         <v>35038</v>
@@ -34838,7 +34747,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B14" s="113">
         <v>12382</v>
@@ -34873,7 +34782,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B15" s="113">
         <v>464</v>
@@ -34908,7 +34817,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B16" s="113">
         <v>3285</v>
@@ -34943,7 +34852,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B17" s="113">
         <v>3565</v>
@@ -34978,7 +34887,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B18" s="113">
         <v>13490</v>
@@ -35013,7 +34922,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="99" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B19" s="113">
         <v>12286</v>
@@ -35083,7 +34992,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="99" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B21" s="113">
         <v>3291</v>
@@ -35118,7 +35027,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="99" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B22" s="113">
         <v>1391</v>
@@ -35153,7 +35062,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="99" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B23" s="113">
         <v>21633</v>
@@ -35188,7 +35097,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="99" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="113">
         <v>16482</v>
@@ -35223,7 +35132,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="99" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B25" s="113">
         <v>1013</v>
@@ -35295,8 +35204,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35311,12 +35220,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2" s="105" t="s">
         <v>392</v>
@@ -35810,7 +35719,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="233" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B1" s="234">
         <v>2017</v>
@@ -36534,7 +36443,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36549,7 +36458,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -36560,30 +36469,30 @@
       <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="258" t="s">
+      <c r="B2" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="258" t="s">
+      <c r="C2" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258" t="s">
+      <c r="D2" s="257"/>
+      <c r="E2" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="258"/>
-      <c r="G2" s="268" t="s">
+      <c r="F2" s="257"/>
+      <c r="G2" s="267" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="268" t="s">
+      <c r="H2" s="267" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="258"/>
-      <c r="B3" s="258"/>
+      <c r="A3" s="257"/>
+      <c r="B3" s="257"/>
       <c r="C3" s="96" t="s">
         <v>45</v>
       </c>
@@ -36596,8 +36505,8 @@
       <c r="F3" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="183" t="s">
@@ -36689,26 +36598,26 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="247" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="248" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="254" t="s">
+      <c r="C9" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="254" t="s">
+      <c r="D9" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="249" t="s">
+      <c r="E9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="249" t="s">
+      <c r="F9" s="246" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="175" t="s">
@@ -36721,7 +36630,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="185" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B10" s="149">
         <v>7963586</v>
@@ -37032,56 +36941,56 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="270"/>
-      <c r="B2" s="271" t="s">
+      <c r="A2" s="269"/>
+      <c r="B2" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="270" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271" t="s">
+      <c r="D2" s="270"/>
+      <c r="E2" s="270" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="271"/>
-      <c r="G2" s="261" t="s">
+      <c r="F2" s="270"/>
+      <c r="G2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="H2" s="261" t="s">
+      <c r="H2" s="265" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="270"/>
-      <c r="B3" s="271"/>
-      <c r="C3" s="272" t="s">
+      <c r="A3" s="269"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="271" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="272" t="s">
+      <c r="D3" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="274" t="s">
+      <c r="E3" s="273" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="274" t="s">
+      <c r="F3" s="273" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
+      <c r="G3" s="265"/>
+      <c r="H3" s="265"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="270"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="261"/>
-      <c r="H4" s="261"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="270"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="274"/>
+      <c r="F4" s="274"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="265"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="185" t="s">
@@ -37553,7 +37462,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="228" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C1" s="99"/>
       <c r="D1" s="99"/>
@@ -37565,55 +37474,55 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="282"/>
-      <c r="C2" s="284" t="s">
+      <c r="B2" s="283"/>
+      <c r="C2" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="284" t="s">
+      <c r="D2" s="275" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284" t="s">
+      <c r="E2" s="275"/>
+      <c r="F2" s="275" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="284"/>
-      <c r="H2" s="261" t="s">
+      <c r="G2" s="275"/>
+      <c r="H2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="I2" s="261" t="s">
+      <c r="I2" s="265" t="s">
         <v>512</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="282"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284" t="s">
+      <c r="B3" s="283"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="284" t="s">
+      <c r="E3" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="284" t="s">
+      <c r="F3" s="275" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="284" t="s">
+      <c r="G3" s="275" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="275"/>
+      <c r="D4" s="275"/>
+      <c r="E4" s="275"/>
+      <c r="F4" s="275"/>
+      <c r="G4" s="275"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="189" t="s">
@@ -37810,7 +37719,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="85" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="85"/>
@@ -37821,54 +37730,54 @@
       <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="280" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="276" t="s">
+      <c r="C14" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="284" t="s">
+      <c r="D14" s="275" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="284" t="s">
+      <c r="E14" s="275"/>
+      <c r="F14" s="275" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="284"/>
-      <c r="H14" s="261" t="s">
+      <c r="G14" s="275"/>
+      <c r="H14" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="I14" s="261" t="s">
+      <c r="I14" s="265" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="280"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="284" t="s">
+      <c r="B15" s="281"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="284" t="s">
+      <c r="E15" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="285" t="s">
+      <c r="F15" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="285" t="s">
+      <c r="G15" s="276" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="265"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="281"/>
-      <c r="C16" s="278"/>
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="285"/>
-      <c r="G16" s="285"/>
-      <c r="H16" s="261"/>
-      <c r="I16" s="261"/>
+      <c r="B16" s="282"/>
+      <c r="C16" s="279"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="265"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="189"/>
@@ -39014,7 +38923,7 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="191" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C61" s="192">
         <v>273</v>
@@ -39040,7 +38949,7 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="191" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C62" s="192">
         <v>1894</v>
@@ -39066,7 +38975,7 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="191" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C63" s="192">
         <v>35871</v>
@@ -39118,6 +39027,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="I14:I16"/>
@@ -39133,11 +39047,6 @@
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
@@ -39169,70 +39078,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="289" t="s">
-        <v>631</v>
-      </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
+      <c r="B1" s="288" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="293" t="s">
+      <c r="B2" s="292" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="290" t="s">
+      <c r="D2" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290" t="s">
+      <c r="E2" s="289"/>
+      <c r="F2" s="289" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="290"/>
-      <c r="H2" s="261" t="s">
+      <c r="G2" s="289"/>
+      <c r="H2" s="265" t="s">
         <v>505</v>
       </c>
-      <c r="I2" s="261" t="s">
+      <c r="I2" s="265" t="s">
         <v>512</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="293"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291" t="s">
+      <c r="B3" s="292"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="291" t="s">
+      <c r="E3" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="292" t="s">
+      <c r="F3" s="291" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="292" t="s">
+      <c r="G3" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
+      <c r="H3" s="265"/>
+      <c r="I3" s="265"/>
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="293"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="292"/>
-      <c r="G4" s="292"/>
-      <c r="H4" s="261"/>
-      <c r="I4" s="261"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="291"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="265"/>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="193" t="s">
@@ -39319,16 +39228,16 @@
       <c r="I11" s="194"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="286" t="s">
+      <c r="B12" s="285" t="s">
         <v>501</v>
       </c>
-      <c r="C12" s="287"/>
-      <c r="D12" s="287"/>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="288"/>
+      <c r="C12" s="286"/>
+      <c r="D12" s="286"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="286"/>
+      <c r="I12" s="287"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="196" t="s">
@@ -39427,20 +39336,20 @@
       <c r="I20" s="194"/>
     </row>
     <row r="21" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="286" t="s">
+      <c r="B21" s="285" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="288"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="287"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="196" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C22" s="194">
         <v>209211</v>
@@ -39466,7 +39375,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="196" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C23" s="194">
         <v>322360</v>
@@ -39492,7 +39401,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="196" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C24" s="194">
         <v>736</v>
@@ -39518,7 +39427,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="196" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C25" s="194">
         <v>206</v>
@@ -39544,7 +39453,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="196" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C26" s="194">
         <v>5774</v>
@@ -39570,7 +39479,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="196" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C27" s="194">
         <v>8435</v>
@@ -39596,7 +39505,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="196" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C28" s="194">
         <v>75571</v>
@@ -39623,7 +39532,7 @@
     <row r="29" spans="1:9" s="28" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="196" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C29" s="194">
         <v>906</v>
@@ -39703,7 +39612,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -39716,58 +39625,58 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
-      <c r="B2" s="295">
+      <c r="B2" s="293">
         <v>15</v>
       </c>
-      <c r="C2" s="296" t="s">
+      <c r="C2" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="297" t="s">
+      <c r="D2" s="295" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="294" t="s">
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="294" t="s">
+      <c r="I2" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="294" t="s">
+      <c r="J2" s="296" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
-      <c r="B3" s="295"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="294" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="294" t="s">
+      <c r="E3" s="296" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="294" t="s">
+      <c r="F3" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="294" t="s">
+      <c r="G3" s="296" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="294"/>
-      <c r="I3" s="294"/>
-      <c r="J3" s="294"/>
+      <c r="H3" s="296"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="296"/>
     </row>
     <row r="4" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="295"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="294"/>
-      <c r="F4" s="294"/>
-      <c r="G4" s="294"/>
-      <c r="H4" s="294"/>
-      <c r="I4" s="294"/>
-      <c r="J4" s="294"/>
+      <c r="B4" s="293"/>
+      <c r="C4" s="294"/>
+      <c r="D4" s="296"/>
+      <c r="E4" s="296"/>
+      <c r="F4" s="296"/>
+      <c r="G4" s="296"/>
+      <c r="H4" s="296"/>
+      <c r="I4" s="296"/>
+      <c r="J4" s="296"/>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="166" t="s">
@@ -40938,16 +40847,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
